--- a/ACEH_dengan_Tahun_Bulan_Hari.xlsx
+++ b/ACEH_dengan_Tahun_Bulan_Hari.xlsx
@@ -8,34 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\DASHBOARD\DASHBOARD_ACEH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6EB5CA-FEC3-472C-BABF-52DC66BBDE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706003A8-F222-4C98-B4E3-62A602ACB1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>tx</t>
-  </si>
-  <si>
-    <t>tn</t>
-  </si>
-  <si>
-    <t>tavg</t>
-  </si>
-  <si>
-    <t>tekanan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tanggal</t>
   </si>
@@ -48,14 +42,29 @@
   <si>
     <t>Hari</t>
   </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Tx</t>
+  </si>
+  <si>
+    <t>Tn</t>
+  </si>
+  <si>
+    <t>Tavg</t>
+  </si>
+  <si>
+    <t>Tekanan</t>
+  </si>
+  <si>
+    <t>Rentang_Suhu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,12 +117,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,45 +464,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I433"/>
+  <dimension ref="A1:J433"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>31048</v>
       </c>
       <c r="B2">
@@ -512,14 +531,18 @@
         <v>23</v>
       </c>
       <c r="H2">
+        <f>(F2-G2)</f>
+        <v>8.5</v>
+      </c>
+      <c r="I2">
         <v>27.25</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>31079</v>
       </c>
       <c r="B3">
@@ -541,14 +564,18 @@
         <v>24</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">(F3-G3)</f>
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="I3">
         <v>25.9</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.8000000000000012</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>31107</v>
       </c>
       <c r="B4">
@@ -570,14 +597,18 @@
         <v>24</v>
       </c>
       <c r="H4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I4">
         <v>27.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>31138</v>
       </c>
       <c r="B5">
@@ -599,14 +630,18 @@
         <v>23</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="I5">
         <v>26.4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>31168</v>
       </c>
       <c r="B6">
@@ -628,14 +663,18 @@
         <v>22</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I6">
         <v>25</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>31199</v>
       </c>
       <c r="B7">
@@ -657,14 +696,18 @@
         <v>23</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I7">
         <v>26.6</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>31229</v>
       </c>
       <c r="B8">
@@ -686,14 +729,18 @@
         <v>23</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I8">
         <v>26.6</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>31260</v>
       </c>
       <c r="B9">
@@ -715,14 +762,18 @@
         <v>23</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="I9">
         <v>26.7</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7.3999999999999986</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>31291</v>
       </c>
       <c r="B10">
@@ -744,14 +795,18 @@
         <v>23</v>
       </c>
       <c r="H10">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I10">
         <v>26.6</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>31321</v>
       </c>
       <c r="B11">
@@ -773,14 +828,18 @@
         <v>23</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I11">
         <v>26.8</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>31352</v>
       </c>
       <c r="B12">
@@ -802,14 +861,18 @@
         <v>23</v>
       </c>
       <c r="H12">
+        <f t="shared" si="0"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="I12">
         <v>26.7</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>7.3999999999999986</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>31382</v>
       </c>
       <c r="B13">
@@ -831,14 +894,18 @@
         <v>24</v>
       </c>
       <c r="H13">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="I13">
         <v>26.9</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>31413</v>
       </c>
       <c r="B14">
@@ -860,14 +927,18 @@
         <v>23</v>
       </c>
       <c r="H14">
+        <f t="shared" si="0"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="I14">
         <v>26.1</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>6.1999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>31444</v>
       </c>
       <c r="B15">
@@ -889,14 +960,18 @@
         <v>23</v>
       </c>
       <c r="H15">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I15">
         <v>27.1</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>31472</v>
       </c>
       <c r="B16">
@@ -918,14 +993,18 @@
         <v>22</v>
       </c>
       <c r="H16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I16">
         <v>26</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>31503</v>
       </c>
       <c r="B17">
@@ -947,14 +1026,18 @@
         <v>23</v>
       </c>
       <c r="H17">
+        <f t="shared" si="0"/>
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="I17">
         <v>26.55</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>7.1000000000000014</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>31533</v>
       </c>
       <c r="B18">
@@ -976,14 +1059,18 @@
         <v>23</v>
       </c>
       <c r="H18">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="I18">
         <v>25.4</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>31564</v>
       </c>
       <c r="B19">
@@ -1005,14 +1092,18 @@
         <v>23</v>
       </c>
       <c r="H19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I19">
         <v>27.5</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>31594</v>
       </c>
       <c r="B20">
@@ -1034,14 +1125,18 @@
         <v>25</v>
       </c>
       <c r="H20">
+        <f t="shared" si="0"/>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="I20">
         <v>27.3</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4.6000000000000014</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>31625</v>
       </c>
       <c r="B21">
@@ -1063,14 +1158,18 @@
         <v>24</v>
       </c>
       <c r="H21">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="I21">
         <v>27.4</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>31656</v>
       </c>
       <c r="B22">
@@ -1092,14 +1191,18 @@
         <v>23</v>
       </c>
       <c r="H22">
+        <f t="shared" si="0"/>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="I22">
         <v>25.45</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>4.8999999999999986</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>31686</v>
       </c>
       <c r="B23">
@@ -1121,14 +1224,18 @@
         <v>23</v>
       </c>
       <c r="H23">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I23">
         <v>27.4</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>31717</v>
       </c>
       <c r="B24">
@@ -1150,14 +1257,18 @@
         <v>24</v>
       </c>
       <c r="H24">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I24">
         <v>27.6</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>31747</v>
       </c>
       <c r="B25">
@@ -1179,14 +1290,18 @@
         <v>24</v>
       </c>
       <c r="H25">
+        <f t="shared" si="0"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="I25">
         <v>28.05</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>8.1000000000000014</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>31778</v>
       </c>
       <c r="B26">
@@ -1208,14 +1323,18 @@
         <v>22</v>
       </c>
       <c r="H26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I26">
         <v>26</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>31809</v>
       </c>
       <c r="B27">
@@ -1237,14 +1356,18 @@
         <v>23</v>
       </c>
       <c r="H27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I27">
         <v>25.5</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>31837</v>
       </c>
       <c r="B28">
@@ -1266,14 +1389,18 @@
         <v>23</v>
       </c>
       <c r="H28">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I28">
         <v>26.6</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>31868</v>
       </c>
       <c r="B29">
@@ -1295,14 +1422,18 @@
         <v>23</v>
       </c>
       <c r="H29">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="I29">
         <v>27.25</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>8.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>31898</v>
       </c>
       <c r="B30">
@@ -1324,14 +1455,18 @@
         <v>23</v>
       </c>
       <c r="H30">
+        <f t="shared" si="0"/>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="I30">
         <v>26.2</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>6.3999999999999986</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>31929</v>
       </c>
       <c r="B31">
@@ -1353,14 +1488,18 @@
         <v>23</v>
       </c>
       <c r="H31">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999986</v>
+      </c>
+      <c r="I31">
         <v>27.45</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>8.8999999999999986</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>31959</v>
       </c>
       <c r="B32">
@@ -1382,14 +1521,18 @@
         <v>23</v>
       </c>
       <c r="H32">
+        <f t="shared" si="0"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I32">
         <v>27.2</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>31990</v>
       </c>
       <c r="B33">
@@ -1411,14 +1554,18 @@
         <v>24</v>
       </c>
       <c r="H33">
+        <f t="shared" si="0"/>
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="I33">
         <v>27.55</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>7.1000000000000014</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>32021</v>
       </c>
       <c r="B34">
@@ -1440,14 +1587,18 @@
         <v>24</v>
       </c>
       <c r="H34">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="I34">
         <v>26.9</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>32051</v>
       </c>
       <c r="B35">
@@ -1469,14 +1620,18 @@
         <v>24</v>
       </c>
       <c r="H35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I35">
         <v>27</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>32082</v>
       </c>
       <c r="B36">
@@ -1498,14 +1653,18 @@
         <v>23</v>
       </c>
       <c r="H36">
+        <f t="shared" si="0"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I36">
         <v>26.8</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>32112</v>
       </c>
       <c r="B37">
@@ -1527,14 +1686,18 @@
         <v>23</v>
       </c>
       <c r="H37">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I37">
         <v>27.1</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>32143</v>
       </c>
       <c r="B38">
@@ -1556,14 +1719,18 @@
         <v>24</v>
       </c>
       <c r="H38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I38">
         <v>27.5</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>32174</v>
       </c>
       <c r="B39">
@@ -1585,14 +1752,18 @@
         <v>25</v>
       </c>
       <c r="H39">
+        <f t="shared" si="0"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="I39">
         <v>29.1</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>32203</v>
       </c>
       <c r="B40">
@@ -1614,14 +1785,18 @@
         <v>23</v>
       </c>
       <c r="H40">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="I40">
         <v>26.25</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>6.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>32234</v>
       </c>
       <c r="B41">
@@ -1643,14 +1818,18 @@
         <v>24</v>
       </c>
       <c r="H41">
+        <f t="shared" si="0"/>
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="I41">
         <v>27.95</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>7.8999999999999986</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>32264</v>
       </c>
       <c r="B42">
@@ -1672,14 +1851,18 @@
         <v>25</v>
       </c>
       <c r="H42">
+        <f t="shared" si="0"/>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="I42">
         <v>28.2</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>6.3999999999999986</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>32295</v>
       </c>
       <c r="B43">
@@ -1701,14 +1884,18 @@
         <v>25</v>
       </c>
       <c r="H43">
+        <f t="shared" si="0"/>
+        <v>3.3999999999999986</v>
+      </c>
+      <c r="I43">
         <v>26.7</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>3.399999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>32325</v>
       </c>
       <c r="B44">
@@ -1730,14 +1917,18 @@
         <v>25</v>
       </c>
       <c r="H44">
+        <f t="shared" si="0"/>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="I44">
         <v>28.35</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>6.6999999999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>32356</v>
       </c>
       <c r="B45">
@@ -1759,14 +1950,18 @@
         <v>24</v>
       </c>
       <c r="H45">
+        <f t="shared" si="0"/>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="I45">
         <v>26.65</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>5.3000000000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>32387</v>
       </c>
       <c r="B46">
@@ -1788,14 +1983,18 @@
         <v>23</v>
       </c>
       <c r="H46">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I46">
         <v>25</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>32417</v>
       </c>
       <c r="B47">
@@ -1817,14 +2016,18 @@
         <v>22</v>
       </c>
       <c r="H47">
+        <f t="shared" si="0"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="I47">
         <v>25.9</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>32448</v>
       </c>
       <c r="B48">
@@ -1846,14 +2049,18 @@
         <v>23</v>
       </c>
       <c r="H48">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="I48">
         <v>27.25</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>8.5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>32478</v>
       </c>
       <c r="B49">
@@ -1875,14 +2082,18 @@
         <v>24</v>
       </c>
       <c r="H49">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="I49">
         <v>27.3</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>6.6000000000000014</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>32509</v>
       </c>
       <c r="B50">
@@ -1904,14 +2115,18 @@
         <v>23</v>
       </c>
       <c r="H50">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I50">
         <v>26.6</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>32540</v>
       </c>
       <c r="B51">
@@ -1933,14 +2148,18 @@
         <v>24</v>
       </c>
       <c r="H51">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I51">
         <v>28</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>32568</v>
       </c>
       <c r="B52">
@@ -1962,14 +2181,18 @@
         <v>24</v>
       </c>
       <c r="H52">
+        <f t="shared" si="0"/>
+        <v>9.1000000000000014</v>
+      </c>
+      <c r="I52">
         <v>28.55</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>9.1000000000000014</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>32599</v>
       </c>
       <c r="B53">
@@ -1991,14 +2214,18 @@
         <v>24</v>
       </c>
       <c r="H53">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I53">
         <v>29</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>32629</v>
       </c>
       <c r="B54">
@@ -2020,14 +2247,18 @@
         <v>25</v>
       </c>
       <c r="H54">
+        <f t="shared" si="0"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I54">
         <v>29.2</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>32660</v>
       </c>
       <c r="B55">
@@ -2049,14 +2280,18 @@
         <v>25</v>
       </c>
       <c r="H55">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="I55">
         <v>28.75</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>7.5</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>32690</v>
       </c>
       <c r="B56">
@@ -2078,14 +2313,18 @@
         <v>24</v>
       </c>
       <c r="H56">
+        <f t="shared" si="0"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I56">
         <v>28.2</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>32721</v>
       </c>
       <c r="B57">
@@ -2107,14 +2346,18 @@
         <v>23</v>
       </c>
       <c r="H57">
+        <f t="shared" si="0"/>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="I57">
         <v>27.65</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>9.2999999999999972</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>32752</v>
       </c>
       <c r="B58">
@@ -2136,14 +2379,18 @@
         <v>24</v>
       </c>
       <c r="H58">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="I58">
         <v>26.1</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>4.1999999999999993</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>32782</v>
       </c>
       <c r="B59">
@@ -2165,14 +2412,18 @@
         <v>23</v>
       </c>
       <c r="H59">
+        <f t="shared" si="0"/>
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="I59">
         <v>26.55</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>7.1000000000000014</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>32813</v>
       </c>
       <c r="B60">
@@ -2194,14 +2445,18 @@
         <v>23</v>
       </c>
       <c r="H60">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999986</v>
+      </c>
+      <c r="I60">
         <v>26.45</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>6.8999999999999986</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>32843</v>
       </c>
       <c r="B61">
@@ -2223,14 +2478,18 @@
         <v>22</v>
       </c>
       <c r="H61">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I61">
         <v>26.4</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>32874</v>
       </c>
       <c r="B62">
@@ -2252,14 +2511,18 @@
         <v>23</v>
       </c>
       <c r="H62">
+        <f t="shared" si="0"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="I62">
         <v>27.3</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>8.6000000000000014</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>32905</v>
       </c>
       <c r="B63">
@@ -2281,14 +2544,18 @@
         <v>23</v>
       </c>
       <c r="H63">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="I63">
         <v>26.85</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>7.6999999999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>32933</v>
       </c>
       <c r="B64">
@@ -2310,14 +2577,18 @@
         <v>23</v>
       </c>
       <c r="H64">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I64">
         <v>26.5</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>32964</v>
       </c>
       <c r="B65">
@@ -2339,14 +2610,18 @@
         <v>23</v>
       </c>
       <c r="H65">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="I65">
         <v>25.7</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>5.3999999999999986</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>32994</v>
       </c>
       <c r="B66">
@@ -2368,14 +2643,18 @@
         <v>23</v>
       </c>
       <c r="H66">
+        <f t="shared" si="0"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="I66">
         <v>26.7</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>7.3999999999999986</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>33025</v>
       </c>
       <c r="B67">
@@ -2397,14 +2676,18 @@
         <v>23</v>
       </c>
       <c r="H67">
+        <f t="shared" ref="H67:H130" si="1">(F67-G67)</f>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="I67">
         <v>26.3</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>6.6000000000000014</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>33055</v>
       </c>
       <c r="B68">
@@ -2426,14 +2709,18 @@
         <v>24</v>
       </c>
       <c r="H68">
+        <f t="shared" si="1"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I68">
         <v>27.8</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>33086</v>
       </c>
       <c r="B69">
@@ -2455,14 +2742,18 @@
         <v>23</v>
       </c>
       <c r="H69">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="I69">
         <v>26.4</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>33117</v>
       </c>
       <c r="B70">
@@ -2484,14 +2775,18 @@
         <v>23</v>
       </c>
       <c r="H70">
+        <f t="shared" si="1"/>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="I70">
         <v>26.65</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>7.3000000000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>33147</v>
       </c>
       <c r="B71">
@@ -2513,14 +2808,18 @@
         <v>24</v>
       </c>
       <c r="H71">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="I71">
         <v>26.8</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>5.6000000000000014</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>33178</v>
       </c>
       <c r="B72">
@@ -2542,14 +2841,18 @@
         <v>23</v>
       </c>
       <c r="H72">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I72">
         <v>25.5</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>33208</v>
       </c>
       <c r="B73">
@@ -2571,14 +2874,18 @@
         <v>23</v>
       </c>
       <c r="H73">
+        <f t="shared" si="1"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="I73">
         <v>26.85</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>7.6999999999999993</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>33239</v>
       </c>
       <c r="B74">
@@ -2600,14 +2907,18 @@
         <v>24</v>
       </c>
       <c r="H74">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I74">
         <v>27.6</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>33270</v>
       </c>
       <c r="B75">
@@ -2629,14 +2940,18 @@
         <v>23</v>
       </c>
       <c r="H75">
+        <f t="shared" si="1"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="I75">
         <v>25.15</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>33298</v>
       </c>
       <c r="B76">
@@ -2658,14 +2973,18 @@
         <v>23</v>
       </c>
       <c r="H76">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="I76">
         <v>24.75</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>3.5</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>33329</v>
       </c>
       <c r="B77">
@@ -2687,14 +3006,18 @@
         <v>24</v>
       </c>
       <c r="H77">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="I77">
         <v>27.7</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>7.3999999999999986</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>33359</v>
       </c>
       <c r="B78">
@@ -2716,14 +3039,18 @@
         <v>24</v>
       </c>
       <c r="H78">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="I78">
         <v>26.7</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>5.3999999999999986</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>33390</v>
       </c>
       <c r="B79">
@@ -2745,14 +3072,18 @@
         <v>24</v>
       </c>
       <c r="H79">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="I79">
         <v>25.4</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>2.8000000000000012</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>33420</v>
       </c>
       <c r="B80">
@@ -2774,14 +3105,18 @@
         <v>24</v>
       </c>
       <c r="H80">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="I80">
         <v>25.75</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>3.5</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>33451</v>
       </c>
       <c r="B81">
@@ -2803,14 +3138,18 @@
         <v>24</v>
       </c>
       <c r="H81">
+        <f t="shared" si="1"/>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="I81">
         <v>26.05</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>4.1000000000000014</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>33482</v>
       </c>
       <c r="B82">
@@ -2832,14 +3171,18 @@
         <v>24</v>
       </c>
       <c r="H82">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="I82">
         <v>27.3</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>6.6000000000000014</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>33512</v>
       </c>
       <c r="B83">
@@ -2861,14 +3204,18 @@
         <v>23</v>
       </c>
       <c r="H83">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I83">
         <v>27.1</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>33543</v>
       </c>
       <c r="B84">
@@ -2890,14 +3237,18 @@
         <v>23</v>
       </c>
       <c r="H84">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I84">
         <v>27.5</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>33573</v>
       </c>
       <c r="B85">
@@ -2919,14 +3270,18 @@
         <v>24</v>
       </c>
       <c r="H85">
+        <f t="shared" si="1"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="I85">
         <v>28.1</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>33604</v>
       </c>
       <c r="B86">
@@ -2948,14 +3303,18 @@
         <v>24</v>
       </c>
       <c r="H86">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="I86">
         <v>27.7</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>7.3999999999999986</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>33635</v>
       </c>
       <c r="B87">
@@ -2977,14 +3336,18 @@
         <v>24</v>
       </c>
       <c r="H87">
+        <f t="shared" si="1"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="I87">
         <v>28.1</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>33664</v>
       </c>
       <c r="B88">
@@ -3006,14 +3369,18 @@
         <v>25</v>
       </c>
       <c r="H88">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I88">
         <v>28.5</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>33695</v>
       </c>
       <c r="B89">
@@ -3035,14 +3402,18 @@
         <v>25</v>
       </c>
       <c r="H89">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="I89">
         <v>27.6</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>33725</v>
       </c>
       <c r="B90">
@@ -3064,14 +3435,18 @@
         <v>25</v>
       </c>
       <c r="H90">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="I90">
         <v>27.7</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>5.3999999999999986</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>33756</v>
       </c>
       <c r="B91">
@@ -3093,14 +3468,18 @@
         <v>24</v>
       </c>
       <c r="H91">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="I91">
         <v>27.25</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>6.5</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>33786</v>
       </c>
       <c r="B92">
@@ -3122,14 +3501,18 @@
         <v>24</v>
       </c>
       <c r="H92">
+        <f t="shared" si="1"/>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="I92">
         <v>27.65</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>7.3000000000000007</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>33817</v>
       </c>
       <c r="B93">
@@ -3151,14 +3534,18 @@
         <v>24</v>
       </c>
       <c r="H93">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="I93">
         <v>26.6</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>33848</v>
       </c>
       <c r="B94">
@@ -3180,14 +3567,18 @@
         <v>23</v>
       </c>
       <c r="H94">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="I94">
         <v>25.85</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>5.6999999999999993</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>33878</v>
       </c>
       <c r="B95">
@@ -3209,14 +3600,18 @@
         <v>24</v>
       </c>
       <c r="H95">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I95">
         <v>28</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>33909</v>
       </c>
       <c r="B96">
@@ -3238,14 +3633,18 @@
         <v>24</v>
       </c>
       <c r="H96">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="I96">
         <v>27.4</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>33939</v>
       </c>
       <c r="B97">
@@ -3267,14 +3666,18 @@
         <v>24</v>
       </c>
       <c r="H97">
+        <f t="shared" si="1"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="I97">
         <v>28.1</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>33970</v>
       </c>
       <c r="B98">
@@ -3296,14 +3699,18 @@
         <v>23</v>
       </c>
       <c r="H98">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="I98">
         <v>25.1</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>4.1999999999999993</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>34001</v>
       </c>
       <c r="B99">
@@ -3325,14 +3732,18 @@
         <v>24</v>
       </c>
       <c r="H99">
+        <f t="shared" si="1"/>
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="I99">
         <v>27.55</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>7.1000000000000014</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>34029</v>
       </c>
       <c r="B100">
@@ -3354,14 +3765,18 @@
         <v>24</v>
       </c>
       <c r="H100">
+        <f t="shared" si="1"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="I100">
         <v>28.05</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>8.1000000000000014</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>34060</v>
       </c>
       <c r="B101">
@@ -3383,14 +3798,18 @@
         <v>24</v>
       </c>
       <c r="H101">
+        <f t="shared" si="1"/>
+        <v>8.2999999999999972</v>
+      </c>
+      <c r="I101">
         <v>28.15</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>8.2999999999999972</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>34090</v>
       </c>
       <c r="B102">
@@ -3412,14 +3831,18 @@
         <v>23</v>
       </c>
       <c r="H102">
+        <f t="shared" si="1"/>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="I102">
         <v>27.65</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>9.2999999999999972</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>34121</v>
       </c>
       <c r="B103">
@@ -3441,14 +3864,18 @@
         <v>24</v>
       </c>
       <c r="H103">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I103">
         <v>28</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>34151</v>
       </c>
       <c r="B104">
@@ -3470,14 +3897,18 @@
         <v>23</v>
       </c>
       <c r="H104">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I104">
         <v>27.35</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>34182</v>
       </c>
       <c r="B105">
@@ -3499,14 +3930,18 @@
         <v>24</v>
       </c>
       <c r="H105">
+        <f t="shared" si="1"/>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="I105">
         <v>27.2</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>6.3999999999999986</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>34213</v>
       </c>
       <c r="B106">
@@ -3528,14 +3963,18 @@
         <v>24</v>
       </c>
       <c r="H106">
+        <f t="shared" si="1"/>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="I106">
         <v>27.35</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>6.6999999999999993</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>34243</v>
       </c>
       <c r="B107">
@@ -3557,14 +3996,18 @@
         <v>24</v>
       </c>
       <c r="H107">
+        <f t="shared" si="1"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="I107">
         <v>25.8</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>3.600000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>34274</v>
       </c>
       <c r="B108">
@@ -3586,14 +4029,18 @@
         <v>24</v>
       </c>
       <c r="H108">
+        <f t="shared" si="1"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="I108">
         <v>28.05</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>8.1000000000000014</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>34304</v>
       </c>
       <c r="B109">
@@ -3615,14 +4062,18 @@
         <v>23</v>
       </c>
       <c r="H109">
+        <f t="shared" si="1"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="I109">
         <v>27.3</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>8.6000000000000014</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>34335</v>
       </c>
       <c r="B110">
@@ -3644,14 +4095,18 @@
         <v>22</v>
       </c>
       <c r="H110">
+        <f t="shared" si="1"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="I110">
         <v>26.7</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>34366</v>
       </c>
       <c r="B111">
@@ -3673,14 +4128,18 @@
         <v>23</v>
       </c>
       <c r="H111">
+        <f t="shared" si="1"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="I111">
         <v>26.85</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>7.6999999999999993</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>34394</v>
       </c>
       <c r="B112">
@@ -3702,14 +4161,18 @@
         <v>23</v>
       </c>
       <c r="H112">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="I112">
         <v>26.75</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>7.5</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>34425</v>
       </c>
       <c r="B113">
@@ -3731,14 +4194,18 @@
         <v>25</v>
       </c>
       <c r="H113">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I113">
         <v>28.5</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>34455</v>
       </c>
       <c r="B114">
@@ -3760,14 +4227,18 @@
         <v>24</v>
       </c>
       <c r="H114">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I114">
         <v>28.2</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <v>34486</v>
       </c>
       <c r="B115">
@@ -3789,14 +4260,18 @@
         <v>24</v>
       </c>
       <c r="H115">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="I115">
         <v>26.45</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>4.8999999999999986</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>34516</v>
       </c>
       <c r="B116">
@@ -3818,14 +4293,18 @@
         <v>23</v>
       </c>
       <c r="H116">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I116">
         <v>27.2</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <v>34547</v>
       </c>
       <c r="B117">
@@ -3847,14 +4326,18 @@
         <v>25</v>
       </c>
       <c r="H117">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I117">
         <v>27</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <v>34578</v>
       </c>
       <c r="B118">
@@ -3876,14 +4359,18 @@
         <v>23</v>
       </c>
       <c r="H118">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I118">
         <v>27.1</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <v>34608</v>
       </c>
       <c r="B119">
@@ -3905,14 +4392,18 @@
         <v>23</v>
       </c>
       <c r="H119">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999986</v>
+      </c>
+      <c r="I119">
         <v>27.45</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>8.8999999999999986</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <v>34639</v>
       </c>
       <c r="B120">
@@ -3934,14 +4425,18 @@
         <v>23</v>
       </c>
       <c r="H120">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I120">
         <v>27.1</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <v>34669</v>
       </c>
       <c r="B121">
@@ -3963,14 +4458,18 @@
         <v>24</v>
       </c>
       <c r="H121">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I121">
         <v>27.5</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>34700</v>
       </c>
       <c r="B122">
@@ -3992,14 +4491,18 @@
         <v>24</v>
       </c>
       <c r="H122">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="I122">
         <v>26.6</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <v>34731</v>
       </c>
       <c r="B123">
@@ -4021,14 +4524,18 @@
         <v>24</v>
       </c>
       <c r="H123">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="I123">
         <v>27.75</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>7.5</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <v>34759</v>
       </c>
       <c r="B124">
@@ -4050,14 +4557,18 @@
         <v>24</v>
       </c>
       <c r="H124">
+        <f t="shared" si="1"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="I124">
         <v>28.6</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>9.2000000000000028</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <v>34790</v>
       </c>
       <c r="B125">
@@ -4079,14 +4590,18 @@
         <v>24</v>
       </c>
       <c r="H125">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I125">
         <v>28</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <v>34820</v>
       </c>
       <c r="B126">
@@ -4108,14 +4623,18 @@
         <v>24</v>
       </c>
       <c r="H126">
+        <f t="shared" si="1"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="I126">
         <v>27.9</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <v>34851</v>
       </c>
       <c r="B127">
@@ -4137,14 +4656,18 @@
         <v>23</v>
       </c>
       <c r="H127">
+        <f t="shared" si="1"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="I127">
         <v>27.8</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <v>34881</v>
       </c>
       <c r="B128">
@@ -4166,14 +4689,18 @@
         <v>24</v>
       </c>
       <c r="H128">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I128">
         <v>26</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <v>34912</v>
       </c>
       <c r="B129">
@@ -4195,14 +4722,18 @@
         <v>24</v>
       </c>
       <c r="H129">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I129">
         <v>28</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <v>34943</v>
       </c>
       <c r="B130">
@@ -4224,14 +4755,18 @@
         <v>24</v>
       </c>
       <c r="H130">
+        <f t="shared" si="1"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="I130">
         <v>28.05</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>8.1000000000000014</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <v>34973</v>
       </c>
       <c r="B131">
@@ -4253,14 +4788,18 @@
         <v>24</v>
       </c>
       <c r="H131">
+        <f t="shared" ref="H131:H194" si="2">(F131-G131)</f>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="I131">
         <v>27.35</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>6.6999999999999993</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <v>35004</v>
       </c>
       <c r="B132">
@@ -4282,14 +4821,18 @@
         <v>24</v>
       </c>
       <c r="H132">
+        <f t="shared" si="2"/>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="I132">
         <v>27.65</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>7.3000000000000007</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <v>35034</v>
       </c>
       <c r="B133">
@@ -4311,14 +4854,18 @@
         <v>24</v>
       </c>
       <c r="H133">
+        <f t="shared" si="2"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="I133">
         <v>28.1</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <v>35065</v>
       </c>
       <c r="B134">
@@ -4340,14 +4887,18 @@
         <v>24</v>
       </c>
       <c r="H134">
+        <f t="shared" si="2"/>
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="I134">
         <v>26.8</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>5.6000000000000014</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <v>35096</v>
       </c>
       <c r="B135">
@@ -4369,14 +4920,18 @@
         <v>24</v>
       </c>
       <c r="H135">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I135">
         <v>27.5</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <v>35125</v>
       </c>
       <c r="B136">
@@ -4398,14 +4953,18 @@
         <v>24</v>
       </c>
       <c r="H136">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I136">
         <v>27.5</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <v>35156</v>
       </c>
       <c r="B137">
@@ -4427,14 +4986,18 @@
         <v>24</v>
       </c>
       <c r="H137">
+        <f t="shared" si="2"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="I137">
         <v>28.6</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>9.2000000000000028</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <v>35186</v>
       </c>
       <c r="B138">
@@ -4456,14 +5019,18 @@
         <v>24</v>
       </c>
       <c r="H138">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I138">
         <v>27.6</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <v>35217</v>
       </c>
       <c r="B139">
@@ -4485,14 +5052,18 @@
         <v>25</v>
       </c>
       <c r="H139">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I139">
         <v>29</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <v>35247</v>
       </c>
       <c r="B140">
@@ -4514,14 +5085,18 @@
         <v>25</v>
       </c>
       <c r="H140">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I140">
         <v>28</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <v>35278</v>
       </c>
       <c r="B141">
@@ -4543,14 +5118,18 @@
         <v>24</v>
       </c>
       <c r="H141">
+        <f t="shared" si="2"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="I141">
         <v>28.1</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <v>35309</v>
       </c>
       <c r="B142">
@@ -4572,14 +5151,18 @@
         <v>25</v>
       </c>
       <c r="H142">
+        <f t="shared" si="2"/>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="I142">
         <v>28.35</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>6.6999999999999993</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <v>35339</v>
       </c>
       <c r="B143">
@@ -4601,14 +5184,18 @@
         <v>25</v>
       </c>
       <c r="H143">
+        <f t="shared" si="2"/>
+        <v>6.1000000000000014</v>
+      </c>
+      <c r="I143">
         <v>28.05</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>6.1000000000000014</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <v>35370</v>
       </c>
       <c r="B144">
@@ -4630,14 +5217,18 @@
         <v>25</v>
       </c>
       <c r="H144">
+        <f t="shared" si="2"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="I144">
         <v>28.1</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>6.1999999999999993</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <v>35400</v>
       </c>
       <c r="B145">
@@ -4659,14 +5250,18 @@
         <v>23</v>
       </c>
       <c r="H145">
+        <f t="shared" si="2"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I145">
         <v>27.2</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <v>35431</v>
       </c>
       <c r="B146">
@@ -4688,14 +5283,18 @@
         <v>23</v>
       </c>
       <c r="H146">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I146">
         <v>26.6</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
         <v>35462</v>
       </c>
       <c r="B147">
@@ -4717,14 +5316,18 @@
         <v>24</v>
       </c>
       <c r="H147">
+        <f t="shared" si="2"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I147">
         <v>27.8</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <v>35490</v>
       </c>
       <c r="B148">
@@ -4746,14 +5349,18 @@
         <v>22</v>
       </c>
       <c r="H148">
+        <f t="shared" si="2"/>
+        <v>8.8999999999999986</v>
+      </c>
+      <c r="I148">
         <v>26.45</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>8.8999999999999986</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <v>35521</v>
       </c>
       <c r="B149">
@@ -4775,14 +5382,18 @@
         <v>23</v>
       </c>
       <c r="H149">
+        <f t="shared" si="2"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I149">
         <v>27.1</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <v>35551</v>
       </c>
       <c r="B150">
@@ -4804,14 +5415,18 @@
         <v>23</v>
       </c>
       <c r="H150">
+        <f t="shared" si="2"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I150">
         <v>27.4</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <v>35582</v>
       </c>
       <c r="B151">
@@ -4833,14 +5448,18 @@
         <v>25</v>
       </c>
       <c r="H151">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I151">
         <v>29</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <v>35612</v>
       </c>
       <c r="B152">
@@ -4862,14 +5481,18 @@
         <v>24</v>
       </c>
       <c r="H152">
+        <f t="shared" si="2"/>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="I152">
         <v>26.85</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>5.6999999999999993</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <v>35643</v>
       </c>
       <c r="B153">
@@ -4891,14 +5514,18 @@
         <v>24</v>
       </c>
       <c r="H153">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="I153">
         <v>28.25</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>8.5</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <v>35674</v>
       </c>
       <c r="B154">
@@ -4920,14 +5547,18 @@
         <v>23</v>
       </c>
       <c r="H154">
+        <f t="shared" si="2"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="I154">
         <v>27.3</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>8.6000000000000014</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <v>35704</v>
       </c>
       <c r="B155">
@@ -4949,14 +5580,18 @@
         <v>23</v>
       </c>
       <c r="H155">
+        <f t="shared" si="2"/>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="I155">
         <v>25.45</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>4.8999999999999986</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <v>35735</v>
       </c>
       <c r="B156">
@@ -4978,14 +5613,18 @@
         <v>22</v>
       </c>
       <c r="H156">
+        <f t="shared" si="2"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I156">
         <v>25.8</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <v>35765</v>
       </c>
       <c r="B157">
@@ -5007,14 +5646,18 @@
         <v>23</v>
       </c>
       <c r="H157">
+        <f t="shared" si="2"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I157">
         <v>27.2</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
         <v>35796</v>
       </c>
       <c r="B158">
@@ -5036,14 +5679,18 @@
         <v>24</v>
       </c>
       <c r="H158">
+        <f t="shared" si="2"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="I158">
         <v>28.1</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <v>35827</v>
       </c>
       <c r="B159">
@@ -5065,14 +5712,18 @@
         <v>23</v>
       </c>
       <c r="H159">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="I159">
         <v>26.4</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
         <v>35855</v>
       </c>
       <c r="B160">
@@ -5094,14 +5745,18 @@
         <v>23</v>
       </c>
       <c r="H160">
+        <f t="shared" si="2"/>
+        <v>2.8999999999999986</v>
+      </c>
+      <c r="I160">
         <v>24.45</v>
       </c>
-      <c r="I160">
+      <c r="J160">
         <v>2.899999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
         <v>35886</v>
       </c>
       <c r="B161">
@@ -5123,14 +5778,18 @@
         <v>23</v>
       </c>
       <c r="H161">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I161">
         <v>26.5</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
         <v>35916</v>
       </c>
       <c r="B162">
@@ -5152,14 +5811,18 @@
         <v>23</v>
       </c>
       <c r="H162">
+        <f t="shared" si="2"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I162">
         <v>27.2</v>
       </c>
-      <c r="I162">
+      <c r="J162">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
         <v>35947</v>
       </c>
       <c r="B163">
@@ -5181,14 +5844,18 @@
         <v>23</v>
       </c>
       <c r="H163">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="I163">
         <v>26.75</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <v>7.5</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <v>35977</v>
       </c>
       <c r="B164">
@@ -5210,14 +5877,18 @@
         <v>23</v>
       </c>
       <c r="H164">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="I164">
         <v>26.75</v>
       </c>
-      <c r="I164">
+      <c r="J164">
         <v>7.5</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
         <v>36008</v>
       </c>
       <c r="B165">
@@ -5239,14 +5910,18 @@
         <v>24</v>
       </c>
       <c r="H165">
+        <f t="shared" si="2"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="I165">
         <v>27.1</v>
       </c>
-      <c r="I165">
+      <c r="J165">
         <v>6.1999999999999993</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
         <v>36039</v>
       </c>
       <c r="B166">
@@ -5268,14 +5943,18 @@
         <v>23</v>
       </c>
       <c r="H166">
+        <f t="shared" si="2"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I166">
         <v>27.2</v>
       </c>
-      <c r="I166">
+      <c r="J166">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <v>36069</v>
       </c>
       <c r="B167">
@@ -5297,14 +5976,18 @@
         <v>22</v>
       </c>
       <c r="H167">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I167">
         <v>26.5</v>
       </c>
-      <c r="I167">
+      <c r="J167">
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
         <v>36100</v>
       </c>
       <c r="B168">
@@ -5326,14 +6009,18 @@
         <v>22</v>
       </c>
       <c r="H168">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I168">
         <v>26</v>
       </c>
-      <c r="I168">
+      <c r="J168">
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
         <v>36130</v>
       </c>
       <c r="B169">
@@ -5355,14 +6042,18 @@
         <v>23</v>
       </c>
       <c r="H169">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I169">
         <v>26</v>
       </c>
-      <c r="I169">
+      <c r="J169">
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <v>36161</v>
       </c>
       <c r="B170">
@@ -5384,14 +6075,18 @@
         <v>23</v>
       </c>
       <c r="H170">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="I170">
         <v>26.75</v>
       </c>
-      <c r="I170">
+      <c r="J170">
         <v>7.5</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
         <v>36192</v>
       </c>
       <c r="B171">
@@ -5413,14 +6108,18 @@
         <v>23</v>
       </c>
       <c r="H171">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I171">
         <v>27</v>
       </c>
-      <c r="I171">
+      <c r="J171">
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
         <v>36220</v>
       </c>
       <c r="B172">
@@ -5442,14 +6141,18 @@
         <v>23</v>
       </c>
       <c r="H172">
+        <f t="shared" si="2"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="I172">
         <v>27.3</v>
       </c>
-      <c r="I172">
+      <c r="J172">
         <v>8.6000000000000014</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
         <v>36251</v>
       </c>
       <c r="B173">
@@ -5471,14 +6174,18 @@
         <v>24</v>
       </c>
       <c r="H173">
+        <f t="shared" si="2"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I173">
         <v>27.8</v>
       </c>
-      <c r="I173">
+      <c r="J173">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
         <v>36281</v>
       </c>
       <c r="B174">
@@ -5500,14 +6207,18 @@
         <v>24</v>
       </c>
       <c r="H174">
+        <f t="shared" si="2"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="I174">
         <v>27.85</v>
       </c>
-      <c r="I174">
+      <c r="J174">
         <v>7.6999999999999993</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
         <v>36312</v>
       </c>
       <c r="B175">
@@ -5529,14 +6240,18 @@
         <v>24</v>
       </c>
       <c r="H175">
+        <f t="shared" si="2"/>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="I175">
         <v>27.2</v>
       </c>
-      <c r="I175">
+      <c r="J175">
         <v>6.3999999999999986</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
         <v>36342</v>
       </c>
       <c r="B176">
@@ -5558,14 +6273,18 @@
         <v>24</v>
       </c>
       <c r="H176">
+        <f t="shared" si="2"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="I176">
         <v>28.35</v>
       </c>
-      <c r="I176">
+      <c r="J176">
         <v>8.7000000000000028</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
         <v>36373</v>
       </c>
       <c r="B177">
@@ -5587,14 +6306,18 @@
         <v>24</v>
       </c>
       <c r="H177">
+        <f t="shared" si="2"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="I177">
         <v>28.1</v>
       </c>
-      <c r="I177">
+      <c r="J177">
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
         <v>36404</v>
       </c>
       <c r="B178">
@@ -5616,14 +6339,18 @@
         <v>24</v>
       </c>
       <c r="H178">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="I178">
         <v>26.75</v>
       </c>
-      <c r="I178">
+      <c r="J178">
         <v>5.5</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
         <v>36434</v>
       </c>
       <c r="B179">
@@ -5645,14 +6372,18 @@
         <v>22</v>
       </c>
       <c r="H179">
+        <f t="shared" si="2"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I179">
         <v>26.4</v>
       </c>
-      <c r="I179">
+      <c r="J179">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
         <v>36465</v>
       </c>
       <c r="B180">
@@ -5674,14 +6405,18 @@
         <v>21</v>
       </c>
       <c r="H180">
+        <f t="shared" si="2"/>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="I180">
         <v>25.95</v>
       </c>
-      <c r="I180">
+      <c r="J180">
         <v>9.8999999999999986</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
         <v>36495</v>
       </c>
       <c r="B181">
@@ -5703,14 +6438,18 @@
         <v>21</v>
       </c>
       <c r="H181">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="I181">
         <v>26.25</v>
       </c>
-      <c r="I181">
+      <c r="J181">
         <v>10.5</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
         <v>36526</v>
       </c>
       <c r="B182">
@@ -5732,14 +6471,18 @@
         <v>22</v>
       </c>
       <c r="H182">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I182">
         <v>26.5</v>
       </c>
-      <c r="I182">
+      <c r="J182">
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
         <v>36557</v>
       </c>
       <c r="B183">
@@ -5761,14 +6504,18 @@
         <v>23</v>
       </c>
       <c r="H183">
+        <f t="shared" si="2"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I183">
         <v>27.1</v>
       </c>
-      <c r="I183">
+      <c r="J183">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
         <v>36586</v>
       </c>
       <c r="B184">
@@ -5790,14 +6537,18 @@
         <v>23</v>
       </c>
       <c r="H184">
+        <f t="shared" si="2"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I184">
         <v>27.2</v>
       </c>
-      <c r="I184">
+      <c r="J184">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
         <v>36617</v>
       </c>
       <c r="B185">
@@ -5819,14 +6570,18 @@
         <v>23</v>
       </c>
       <c r="H185">
+        <f t="shared" si="2"/>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="I185">
         <v>25.3</v>
       </c>
-      <c r="I185">
+      <c r="J185">
         <v>4.6000000000000014</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
         <v>36647</v>
       </c>
       <c r="B186">
@@ -5848,14 +6603,18 @@
         <v>21</v>
       </c>
       <c r="H186">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I186">
         <v>25</v>
       </c>
-      <c r="I186">
+      <c r="J186">
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
         <v>36678</v>
       </c>
       <c r="B187">
@@ -5877,14 +6636,18 @@
         <v>21</v>
       </c>
       <c r="H187">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="I187">
         <v>25.75</v>
       </c>
-      <c r="I187">
+      <c r="J187">
         <v>9.5</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
         <v>36708</v>
       </c>
       <c r="B188">
@@ -5906,14 +6669,18 @@
         <v>22</v>
       </c>
       <c r="H188">
+        <f t="shared" si="2"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="I188">
         <v>26.8</v>
       </c>
-      <c r="I188">
+      <c r="J188">
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
         <v>36739</v>
       </c>
       <c r="B189">
@@ -5935,14 +6702,18 @@
         <v>23</v>
       </c>
       <c r="H189">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I189">
         <v>26.5</v>
       </c>
-      <c r="I189">
+      <c r="J189">
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
         <v>36770</v>
       </c>
       <c r="B190">
@@ -5964,14 +6735,18 @@
         <v>23</v>
       </c>
       <c r="H190">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I190">
         <v>26.5</v>
       </c>
-      <c r="I190">
+      <c r="J190">
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
         <v>36800</v>
       </c>
       <c r="B191">
@@ -5993,14 +6768,18 @@
         <v>21</v>
       </c>
       <c r="H191">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I191">
         <v>26.5</v>
       </c>
-      <c r="I191">
+      <c r="J191">
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
         <v>36831</v>
       </c>
       <c r="B192">
@@ -6022,14 +6801,18 @@
         <v>23</v>
       </c>
       <c r="H192">
+        <f t="shared" si="2"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="I192">
         <v>25.4</v>
       </c>
-      <c r="I192">
+      <c r="J192">
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
         <v>36861</v>
       </c>
       <c r="B193">
@@ -6051,14 +6834,18 @@
         <v>23</v>
       </c>
       <c r="H193">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I193">
         <v>26.6</v>
       </c>
-      <c r="I193">
+      <c r="J193">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
         <v>36892</v>
       </c>
       <c r="B194">
@@ -6080,14 +6867,18 @@
         <v>21</v>
       </c>
       <c r="H194">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I194">
         <v>26</v>
       </c>
-      <c r="I194">
+      <c r="J194">
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
         <v>36923</v>
       </c>
       <c r="B195">
@@ -6109,14 +6900,18 @@
         <v>22</v>
       </c>
       <c r="H195">
+        <f t="shared" ref="H195:H258" si="3">(F195-G195)</f>
+        <v>9.1000000000000014</v>
+      </c>
+      <c r="I195">
         <v>26.55</v>
       </c>
-      <c r="I195">
+      <c r="J195">
         <v>9.1000000000000014</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <v>36951</v>
       </c>
       <c r="B196">
@@ -6138,14 +6933,18 @@
         <v>23</v>
       </c>
       <c r="H196">
+        <f t="shared" si="3"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="I196">
         <v>26.1</v>
       </c>
-      <c r="I196">
+      <c r="J196">
         <v>6.1999999999999993</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
         <v>36982</v>
       </c>
       <c r="B197">
@@ -6167,14 +6966,18 @@
         <v>22</v>
       </c>
       <c r="H197">
+        <f t="shared" si="3"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I197">
         <v>26.65</v>
       </c>
-      <c r="I197">
+      <c r="J197">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <v>37012</v>
       </c>
       <c r="B198">
@@ -6196,14 +6999,18 @@
         <v>22</v>
       </c>
       <c r="H198">
+        <f t="shared" si="3"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I198">
         <v>26.35</v>
       </c>
-      <c r="I198">
+      <c r="J198">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <v>37043</v>
       </c>
       <c r="B199">
@@ -6225,14 +7032,18 @@
         <v>23</v>
       </c>
       <c r="H199">
+        <f t="shared" si="3"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I199">
         <v>26.6</v>
       </c>
-      <c r="I199">
+      <c r="J199">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <v>37073</v>
       </c>
       <c r="B200">
@@ -6254,14 +7065,18 @@
         <v>23</v>
       </c>
       <c r="H200">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I200">
         <v>26.5</v>
       </c>
-      <c r="I200">
+      <c r="J200">
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
         <v>37104</v>
       </c>
       <c r="B201">
@@ -6283,14 +7098,18 @@
         <v>23</v>
       </c>
       <c r="H201">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I201">
         <v>27</v>
       </c>
-      <c r="I201">
+      <c r="J201">
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
         <v>37135</v>
       </c>
       <c r="B202">
@@ -6312,14 +7131,18 @@
         <v>23</v>
       </c>
       <c r="H202">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I202">
         <v>27</v>
       </c>
-      <c r="I202">
+      <c r="J202">
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
         <v>37165</v>
       </c>
       <c r="B203">
@@ -6341,14 +7164,18 @@
         <v>24</v>
       </c>
       <c r="H203">
+        <f t="shared" si="3"/>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="I203">
         <v>26.3</v>
       </c>
-      <c r="I203">
+      <c r="J203">
         <v>4.6000000000000014</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
         <v>37196</v>
       </c>
       <c r="B204">
@@ -6370,14 +7197,18 @@
         <v>23</v>
       </c>
       <c r="H204">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I204">
         <v>26.5</v>
       </c>
-      <c r="I204">
+      <c r="J204">
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
         <v>37226</v>
       </c>
       <c r="B205">
@@ -6399,14 +7230,18 @@
         <v>22</v>
       </c>
       <c r="H205">
+        <f t="shared" si="3"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="I205">
         <v>24.4</v>
       </c>
-      <c r="I205">
+      <c r="J205">
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
         <v>37257</v>
       </c>
       <c r="B206">
@@ -6428,14 +7263,18 @@
         <v>22</v>
       </c>
       <c r="H206">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I206">
         <v>26</v>
       </c>
-      <c r="I206">
+      <c r="J206">
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
         <v>37288</v>
       </c>
       <c r="B207">
@@ -6457,14 +7296,18 @@
         <v>22</v>
       </c>
       <c r="H207">
+        <f t="shared" si="3"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I207">
         <v>26.2</v>
       </c>
-      <c r="I207">
+      <c r="J207">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
         <v>37316</v>
       </c>
       <c r="B208">
@@ -6486,14 +7329,18 @@
         <v>22</v>
       </c>
       <c r="H208">
+        <f t="shared" si="3"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="I208">
         <v>26.7</v>
       </c>
-      <c r="I208">
+      <c r="J208">
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
         <v>37347</v>
       </c>
       <c r="B209">
@@ -6515,14 +7362,18 @@
         <v>23</v>
       </c>
       <c r="H209">
+        <f t="shared" si="3"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="I209">
         <v>26.9</v>
       </c>
-      <c r="I209">
+      <c r="J209">
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
         <v>37377</v>
       </c>
       <c r="B210">
@@ -6544,14 +7395,18 @@
         <v>21</v>
       </c>
       <c r="H210">
+        <f t="shared" si="3"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I210">
         <v>25.9</v>
       </c>
-      <c r="I210">
+      <c r="J210">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
         <v>37408</v>
       </c>
       <c r="B211">
@@ -6573,14 +7428,18 @@
         <v>20</v>
       </c>
       <c r="H211">
+        <f t="shared" si="3"/>
+        <v>10.600000000000001</v>
+      </c>
+      <c r="I211">
         <v>25.3</v>
       </c>
-      <c r="I211">
+      <c r="J211">
         <v>10.6</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
         <v>37438</v>
       </c>
       <c r="B212">
@@ -6602,14 +7461,18 @@
         <v>20</v>
       </c>
       <c r="H212">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I212">
         <v>25.5</v>
       </c>
-      <c r="I212">
+      <c r="J212">
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
         <v>37469</v>
       </c>
       <c r="B213">
@@ -6631,14 +7494,18 @@
         <v>21</v>
       </c>
       <c r="H213">
+        <f t="shared" si="3"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="I213">
         <v>25.7</v>
       </c>
-      <c r="I213">
+      <c r="J213">
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
         <v>37500</v>
       </c>
       <c r="B214">
@@ -6660,14 +7527,18 @@
         <v>22</v>
       </c>
       <c r="H214">
+        <f t="shared" si="3"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="I214">
         <v>27.4</v>
       </c>
-      <c r="I214">
+      <c r="J214">
         <v>10.8</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
         <v>37530</v>
       </c>
       <c r="B215">
@@ -6689,14 +7560,18 @@
         <v>22</v>
       </c>
       <c r="H215">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I215">
         <v>27</v>
       </c>
-      <c r="I215">
+      <c r="J215">
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
         <v>37561</v>
       </c>
       <c r="B216">
@@ -6718,14 +7593,18 @@
         <v>22</v>
       </c>
       <c r="H216">
+        <f t="shared" si="3"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="I216">
         <v>25.3</v>
       </c>
-      <c r="I216">
+      <c r="J216">
         <v>6.6000000000000014</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
         <v>37591</v>
       </c>
       <c r="B217">
@@ -6747,14 +7626,18 @@
         <v>20</v>
       </c>
       <c r="H217">
+        <f t="shared" si="3"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I217">
         <v>24.9</v>
       </c>
-      <c r="I217">
+      <c r="J217">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
         <v>37622</v>
       </c>
       <c r="B218">
@@ -6776,14 +7659,18 @@
         <v>22</v>
       </c>
       <c r="H218">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I218">
         <v>26</v>
       </c>
-      <c r="I218">
+      <c r="J218">
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
         <v>37653</v>
       </c>
       <c r="B219">
@@ -6805,14 +7692,18 @@
         <v>22</v>
       </c>
       <c r="H219">
+        <f t="shared" si="3"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I219">
         <v>26.1</v>
       </c>
-      <c r="I219">
+      <c r="J219">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
         <v>37681</v>
       </c>
       <c r="B220">
@@ -6834,14 +7725,18 @@
         <v>21</v>
       </c>
       <c r="H220">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="I220">
         <v>25.5</v>
       </c>
-      <c r="I220">
+      <c r="J220">
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
         <v>37712</v>
       </c>
       <c r="B221">
@@ -6863,14 +7758,18 @@
         <v>21</v>
       </c>
       <c r="H221">
+        <f t="shared" si="3"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="I221">
         <v>25.8</v>
       </c>
-      <c r="I221">
+      <c r="J221">
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
         <v>37742</v>
       </c>
       <c r="B222">
@@ -6892,14 +7791,18 @@
         <v>21</v>
       </c>
       <c r="H222">
+        <f t="shared" si="3"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I222">
         <v>25.9</v>
       </c>
-      <c r="I222">
+      <c r="J222">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
         <v>37773</v>
       </c>
       <c r="B223">
@@ -6921,14 +7824,18 @@
         <v>20</v>
       </c>
       <c r="H223">
+        <f t="shared" si="3"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I223">
         <v>25.1</v>
       </c>
-      <c r="I223">
+      <c r="J223">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
         <v>37803</v>
       </c>
       <c r="B224">
@@ -6950,14 +7857,18 @@
         <v>20</v>
       </c>
       <c r="H224">
+        <f t="shared" si="3"/>
+        <v>10.8</v>
+      </c>
+      <c r="I224">
         <v>25.4</v>
       </c>
-      <c r="I224">
+      <c r="J224">
         <v>10.8</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
         <v>37834</v>
       </c>
       <c r="B225">
@@ -6979,14 +7890,18 @@
         <v>22</v>
       </c>
       <c r="H225">
+        <f t="shared" si="3"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I225">
         <v>25.6</v>
       </c>
-      <c r="I225">
+      <c r="J225">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
         <v>37865</v>
       </c>
       <c r="B226">
@@ -7008,14 +7923,18 @@
         <v>23</v>
       </c>
       <c r="H226">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I226">
         <v>26.8</v>
       </c>
-      <c r="I226">
+      <c r="J226">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
         <v>37895</v>
       </c>
       <c r="B227">
@@ -7037,14 +7956,18 @@
         <v>22</v>
       </c>
       <c r="H227">
+        <f t="shared" si="3"/>
+        <v>6.1000000000000014</v>
+      </c>
+      <c r="I227">
         <v>25.05</v>
       </c>
-      <c r="I227">
+      <c r="J227">
         <v>6.1000000000000014</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
         <v>37926</v>
       </c>
       <c r="B228">
@@ -7066,14 +7989,18 @@
         <v>22</v>
       </c>
       <c r="H228">
+        <f t="shared" si="3"/>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="I228">
         <v>26.95</v>
       </c>
-      <c r="I228">
+      <c r="J228">
         <v>9.8999999999999986</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
         <v>37956</v>
       </c>
       <c r="B229">
@@ -7095,14 +8022,18 @@
         <v>23</v>
       </c>
       <c r="H229">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I229">
         <v>26.8</v>
       </c>
-      <c r="I229">
+      <c r="J229">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
         <v>37987</v>
       </c>
       <c r="B230">
@@ -7124,14 +8055,18 @@
         <v>22</v>
       </c>
       <c r="H230">
+        <f t="shared" si="3"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="I230">
         <v>26.3</v>
       </c>
-      <c r="I230">
+      <c r="J230">
         <v>8.6000000000000014</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
         <v>38018</v>
       </c>
       <c r="B231">
@@ -7153,14 +8088,18 @@
         <v>23</v>
       </c>
       <c r="H231">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I231">
         <v>27</v>
       </c>
-      <c r="I231">
+      <c r="J231">
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
         <v>38047</v>
       </c>
       <c r="B232">
@@ -7182,14 +8121,18 @@
         <v>22</v>
       </c>
       <c r="H232">
+        <f t="shared" si="3"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="I232">
         <v>25.7</v>
       </c>
-      <c r="I232">
+      <c r="J232">
         <v>7.3999999999999986</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
         <v>38078</v>
       </c>
       <c r="B233">
@@ -7211,14 +8154,18 @@
         <v>23</v>
       </c>
       <c r="H233">
+        <f t="shared" si="3"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I233">
         <v>27.2</v>
       </c>
-      <c r="I233">
+      <c r="J233">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
         <v>38108</v>
       </c>
       <c r="B234">
@@ -7240,14 +8187,18 @@
         <v>21</v>
       </c>
       <c r="H234">
+        <f t="shared" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I234">
         <v>25.4</v>
       </c>
-      <c r="I234">
+      <c r="J234">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
         <v>38139</v>
       </c>
       <c r="B235">
@@ -7269,14 +8220,18 @@
         <v>22</v>
       </c>
       <c r="H235">
+        <f t="shared" si="3"/>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="I235">
         <v>25.15</v>
       </c>
-      <c r="I235">
+      <c r="J235">
         <v>6.3000000000000007</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
         <v>38169</v>
       </c>
       <c r="B236">
@@ -7298,14 +8253,18 @@
         <v>23</v>
       </c>
       <c r="H236">
+        <f t="shared" si="3"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I236">
         <v>27.1</v>
       </c>
-      <c r="I236">
+      <c r="J236">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
         <v>38200</v>
       </c>
       <c r="B237">
@@ -7327,14 +8286,18 @@
         <v>24</v>
       </c>
       <c r="H237">
+        <f t="shared" si="3"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="I237">
         <v>28.1</v>
       </c>
-      <c r="I237">
+      <c r="J237">
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
         <v>38231</v>
       </c>
       <c r="B238">
@@ -7356,14 +8319,18 @@
         <v>22</v>
       </c>
       <c r="H238">
+        <f t="shared" si="3"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I238">
         <v>26.2</v>
       </c>
-      <c r="I238">
+      <c r="J238">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
         <v>38261</v>
       </c>
       <c r="B239">
@@ -7385,14 +8352,18 @@
         <v>22</v>
       </c>
       <c r="H239">
+        <f t="shared" si="3"/>
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="I239">
         <v>25.95</v>
       </c>
-      <c r="I239">
+      <c r="J239">
         <v>7.8999999999999986</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
         <v>38292</v>
       </c>
       <c r="B240">
@@ -7414,14 +8385,18 @@
         <v>23</v>
       </c>
       <c r="H240">
+        <f t="shared" si="3"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="I240">
         <v>26.7</v>
       </c>
-      <c r="I240">
+      <c r="J240">
         <v>7.3999999999999986</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
         <v>38322</v>
       </c>
       <c r="B241">
@@ -7443,14 +8418,18 @@
         <v>23</v>
       </c>
       <c r="H241">
+        <f t="shared" si="3"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="I241">
         <v>27.05</v>
       </c>
-      <c r="I241">
+      <c r="J241">
         <v>8.1000000000000014</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
         <v>38353</v>
       </c>
       <c r="B242">
@@ -7472,14 +8451,18 @@
         <v>23</v>
       </c>
       <c r="H242">
+        <f t="shared" si="3"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="I242">
         <v>25.6</v>
       </c>
-      <c r="I242">
+      <c r="J242">
         <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
         <v>38384</v>
       </c>
       <c r="B243">
@@ -7501,14 +8484,18 @@
         <v>22</v>
       </c>
       <c r="H243">
+        <f t="shared" si="3"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I243">
         <v>26.6</v>
       </c>
-      <c r="I243">
+      <c r="J243">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
         <v>38412</v>
       </c>
       <c r="B244">
@@ -7530,14 +8517,18 @@
         <v>23</v>
       </c>
       <c r="H244">
+        <f t="shared" si="3"/>
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="I244">
         <v>25.8</v>
       </c>
-      <c r="I244">
+      <c r="J244">
         <v>5.6000000000000014</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
         <v>38443</v>
       </c>
       <c r="B245">
@@ -7559,14 +8550,18 @@
         <v>23</v>
       </c>
       <c r="H245">
+        <f t="shared" si="3"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I245">
         <v>27.2</v>
       </c>
-      <c r="I245">
+      <c r="J245">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
         <v>38473</v>
       </c>
       <c r="B246">
@@ -7588,14 +8583,18 @@
         <v>21</v>
       </c>
       <c r="H246">
+        <f t="shared" si="3"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="I246">
         <v>25.8</v>
       </c>
-      <c r="I246">
+      <c r="J246">
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
         <v>38504</v>
       </c>
       <c r="B247">
@@ -7617,14 +8616,18 @@
         <v>22</v>
       </c>
       <c r="H247">
+        <f t="shared" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I247">
         <v>26.4</v>
       </c>
-      <c r="I247">
+      <c r="J247">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
         <v>38534</v>
       </c>
       <c r="B248">
@@ -7646,14 +8649,18 @@
         <v>21</v>
       </c>
       <c r="H248">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+      <c r="I248">
         <v>25.75</v>
       </c>
-      <c r="I248">
+      <c r="J248">
         <v>9.5</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
         <v>38565</v>
       </c>
       <c r="B249">
@@ -7675,14 +8682,18 @@
         <v>23</v>
       </c>
       <c r="H249">
+        <f t="shared" si="3"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I249">
         <v>27.1</v>
       </c>
-      <c r="I249">
+      <c r="J249">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
         <v>38596</v>
       </c>
       <c r="B250">
@@ -7704,14 +8715,18 @@
         <v>22</v>
       </c>
       <c r="H250">
+        <f t="shared" si="3"/>
+        <v>9.1000000000000014</v>
+      </c>
+      <c r="I250">
         <v>26.55</v>
       </c>
-      <c r="I250">
+      <c r="J250">
         <v>9.1000000000000014</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
         <v>38626</v>
       </c>
       <c r="B251">
@@ -7733,14 +8748,18 @@
         <v>22</v>
       </c>
       <c r="H251">
+        <f t="shared" si="3"/>
+        <v>10.600000000000001</v>
+      </c>
+      <c r="I251">
         <v>27.3</v>
       </c>
-      <c r="I251">
+      <c r="J251">
         <v>10.6</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
         <v>38657</v>
       </c>
       <c r="B252">
@@ -7762,14 +8781,18 @@
         <v>23</v>
       </c>
       <c r="H252">
+        <f t="shared" si="3"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="I252">
         <v>26.3</v>
       </c>
-      <c r="I252">
+      <c r="J252">
         <v>6.6000000000000014</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
         <v>38687</v>
       </c>
       <c r="B253">
@@ -7791,14 +8814,18 @@
         <v>23</v>
       </c>
       <c r="H253">
+        <f t="shared" si="3"/>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="I253">
         <v>26.65</v>
       </c>
-      <c r="I253">
+      <c r="J253">
         <v>7.3000000000000007</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
         <v>38718</v>
       </c>
       <c r="B254">
@@ -7820,14 +8847,18 @@
         <v>22</v>
       </c>
       <c r="H254">
+        <f t="shared" si="3"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I254">
         <v>26.65</v>
       </c>
-      <c r="I254">
+      <c r="J254">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
         <v>38749</v>
       </c>
       <c r="B255">
@@ -7849,14 +8880,18 @@
         <v>23</v>
       </c>
       <c r="H255">
+        <f t="shared" si="3"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I255">
         <v>27.2</v>
       </c>
-      <c r="I255">
+      <c r="J255">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
         <v>38777</v>
       </c>
       <c r="B256">
@@ -7878,14 +8913,18 @@
         <v>24</v>
       </c>
       <c r="H256">
+        <f t="shared" si="3"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="I256">
         <v>27.3</v>
       </c>
-      <c r="I256">
+      <c r="J256">
         <v>6.6000000000000014</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
         <v>38808</v>
       </c>
       <c r="B257">
@@ -7907,14 +8946,18 @@
         <v>22</v>
       </c>
       <c r="H257">
+        <f t="shared" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I257">
         <v>26.4</v>
       </c>
-      <c r="I257">
+      <c r="J257">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
         <v>38838</v>
       </c>
       <c r="B258">
@@ -7936,14 +8979,18 @@
         <v>21</v>
       </c>
       <c r="H258">
+        <f t="shared" si="3"/>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="I258">
         <v>26.55</v>
       </c>
-      <c r="I258">
+      <c r="J258">
         <v>11.1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
         <v>38869</v>
       </c>
       <c r="B259">
@@ -7965,14 +9012,18 @@
         <v>22</v>
       </c>
       <c r="H259">
+        <f t="shared" ref="H259:H322" si="4">(F259-G259)</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I259">
         <v>26.85</v>
       </c>
-      <c r="I259">
+      <c r="J259">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
         <v>38899</v>
       </c>
       <c r="B260">
@@ -7994,14 +9045,18 @@
         <v>22</v>
       </c>
       <c r="H260">
+        <f t="shared" si="4"/>
+        <v>8.5</v>
+      </c>
+      <c r="I260">
         <v>26.25</v>
       </c>
-      <c r="I260">
+      <c r="J260">
         <v>8.5</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
         <v>38930</v>
       </c>
       <c r="B261">
@@ -8023,14 +9078,18 @@
         <v>24</v>
       </c>
       <c r="H261">
+        <f t="shared" si="4"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="I261">
         <v>27.4</v>
       </c>
-      <c r="I261">
+      <c r="J261">
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
         <v>38961</v>
       </c>
       <c r="B262">
@@ -8052,14 +9111,18 @@
         <v>24</v>
       </c>
       <c r="H262">
+        <f t="shared" si="4"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I262">
         <v>27.8</v>
       </c>
-      <c r="I262">
+      <c r="J262">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
         <v>38991</v>
       </c>
       <c r="B263">
@@ -8081,14 +9144,18 @@
         <v>24</v>
       </c>
       <c r="H263">
+        <f t="shared" si="4"/>
+        <v>5.1000000000000014</v>
+      </c>
+      <c r="I263">
         <v>26.55</v>
       </c>
-      <c r="I263">
+      <c r="J263">
         <v>5.1000000000000014</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
         <v>39022</v>
       </c>
       <c r="B264">
@@ -8110,14 +9177,18 @@
         <v>22</v>
       </c>
       <c r="H264">
+        <f t="shared" si="4"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I264">
         <v>26.2</v>
       </c>
-      <c r="I264">
+      <c r="J264">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
         <v>39052</v>
       </c>
       <c r="B265">
@@ -8139,14 +9210,18 @@
         <v>22</v>
       </c>
       <c r="H265">
+        <f t="shared" si="4"/>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="I265">
         <v>26.95</v>
       </c>
-      <c r="I265">
+      <c r="J265">
         <v>9.8999999999999986</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
         <v>39083</v>
       </c>
       <c r="B266">
@@ -8168,14 +9243,18 @@
         <v>23</v>
       </c>
       <c r="H266">
+        <f t="shared" si="4"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="I266">
         <v>27.05</v>
       </c>
-      <c r="I266">
+      <c r="J266">
         <v>8.1000000000000014</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
         <v>39114</v>
       </c>
       <c r="B267">
@@ -8197,14 +9276,18 @@
         <v>24</v>
       </c>
       <c r="H267">
+        <f t="shared" si="4"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="I267">
         <v>27.1</v>
       </c>
-      <c r="I267">
+      <c r="J267">
         <v>6.1999999999999993</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
         <v>39142</v>
       </c>
       <c r="B268">
@@ -8226,14 +9309,18 @@
         <v>24</v>
       </c>
       <c r="H268">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="I268">
         <v>27.25</v>
       </c>
-      <c r="I268">
+      <c r="J268">
         <v>6.5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
         <v>39173</v>
       </c>
       <c r="B269">
@@ -8255,14 +9342,18 @@
         <v>23</v>
       </c>
       <c r="H269">
+        <f t="shared" si="4"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="I269">
         <v>27.3</v>
       </c>
-      <c r="I269">
+      <c r="J269">
         <v>8.6000000000000014</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
         <v>39203</v>
       </c>
       <c r="B270">
@@ -8284,14 +9375,18 @@
         <v>23</v>
       </c>
       <c r="H270">
+        <f t="shared" si="4"/>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="I270">
         <v>27.65</v>
       </c>
-      <c r="I270">
+      <c r="J270">
         <v>9.2999999999999972</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
         <v>39234</v>
       </c>
       <c r="B271">
@@ -8313,14 +9408,18 @@
         <v>24</v>
       </c>
       <c r="H271">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I271">
         <v>28</v>
       </c>
-      <c r="I271">
+      <c r="J271">
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
         <v>39264</v>
       </c>
       <c r="B272">
@@ -8342,14 +9441,18 @@
         <v>24</v>
       </c>
       <c r="H272">
+        <f t="shared" si="4"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I272">
         <v>28.2</v>
       </c>
-      <c r="I272">
+      <c r="J272">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
         <v>39295</v>
       </c>
       <c r="B273">
@@ -8371,14 +9474,18 @@
         <v>23</v>
       </c>
       <c r="H273">
+        <f t="shared" si="4"/>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="I273">
         <v>26.2</v>
       </c>
-      <c r="I273">
+      <c r="J273">
         <v>6.3999999999999986</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
         <v>39326</v>
       </c>
       <c r="B274">
@@ -8400,14 +9507,18 @@
         <v>23</v>
       </c>
       <c r="H274">
+        <f t="shared" si="4"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="I274">
         <v>27.8</v>
       </c>
-      <c r="I274">
+      <c r="J274">
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
         <v>39356</v>
       </c>
       <c r="B275">
@@ -8429,14 +9540,18 @@
         <v>22</v>
       </c>
       <c r="H275">
+        <f t="shared" si="4"/>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="I275">
         <v>27.7</v>
       </c>
-      <c r="I275">
+      <c r="J275">
         <v>11.4</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
         <v>39387</v>
       </c>
       <c r="B276">
@@ -8458,14 +9573,18 @@
         <v>23</v>
       </c>
       <c r="H276">
+        <f t="shared" si="4"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="I276">
         <v>26.1</v>
       </c>
-      <c r="I276">
+      <c r="J276">
         <v>6.1999999999999993</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
         <v>39417</v>
       </c>
       <c r="B277">
@@ -8487,14 +9606,18 @@
         <v>24</v>
       </c>
       <c r="H277">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="I277">
         <v>27.75</v>
       </c>
-      <c r="I277">
+      <c r="J277">
         <v>7.5</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
         <v>39448</v>
       </c>
       <c r="B278">
@@ -8516,14 +9639,18 @@
         <v>23</v>
       </c>
       <c r="H278">
+        <f t="shared" si="4"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I278">
         <v>27.2</v>
       </c>
-      <c r="I278">
+      <c r="J278">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
         <v>39479</v>
       </c>
       <c r="B279">
@@ -8545,14 +9672,18 @@
         <v>24</v>
       </c>
       <c r="H279">
+        <f t="shared" si="4"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="I279">
         <v>28.1</v>
       </c>
-      <c r="I279">
+      <c r="J279">
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
         <v>39508</v>
       </c>
       <c r="B280">
@@ -8574,14 +9705,18 @@
         <v>24</v>
       </c>
       <c r="H280">
+        <f t="shared" si="4"/>
+        <v>8.8999999999999986</v>
+      </c>
+      <c r="I280">
         <v>28.45</v>
       </c>
-      <c r="I280">
+      <c r="J280">
         <v>8.8999999999999986</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
         <v>39539</v>
       </c>
       <c r="B281">
@@ -8603,14 +9738,18 @@
         <v>24</v>
       </c>
       <c r="H281">
+        <f t="shared" si="4"/>
+        <v>8.2999999999999972</v>
+      </c>
+      <c r="I281">
         <v>28.15</v>
       </c>
-      <c r="I281">
+      <c r="J281">
         <v>8.2999999999999972</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
         <v>39569</v>
       </c>
       <c r="B282">
@@ -8632,14 +9771,18 @@
         <v>24</v>
       </c>
       <c r="H282">
+        <f t="shared" si="4"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="I282">
         <v>28.6</v>
       </c>
-      <c r="I282">
+      <c r="J282">
         <v>9.2000000000000028</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
         <v>39600</v>
       </c>
       <c r="B283">
@@ -8661,14 +9804,18 @@
         <v>24</v>
       </c>
       <c r="H283">
+        <f t="shared" si="4"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="I283">
         <v>28.1</v>
       </c>
-      <c r="I283">
+      <c r="J283">
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
         <v>39630</v>
       </c>
       <c r="B284">
@@ -8690,14 +9837,18 @@
         <v>24</v>
       </c>
       <c r="H284">
+        <f t="shared" si="4"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="I284">
         <v>28.4</v>
       </c>
-      <c r="I284">
+      <c r="J284">
         <v>8.7999999999999972</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
         <v>39661</v>
       </c>
       <c r="B285">
@@ -8719,14 +9870,18 @@
         <v>23</v>
       </c>
       <c r="H285">
+        <f t="shared" si="4"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="I285">
         <v>27.7</v>
       </c>
-      <c r="I285">
+      <c r="J285">
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
         <v>39692</v>
       </c>
       <c r="B286">
@@ -8748,14 +9903,18 @@
         <v>22</v>
       </c>
       <c r="H286">
+        <f t="shared" si="4"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="I286">
         <v>27.8</v>
       </c>
-      <c r="I286">
+      <c r="J286">
         <v>11.6</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
         <v>39722</v>
       </c>
       <c r="B287">
@@ -8777,14 +9936,18 @@
         <v>22</v>
       </c>
       <c r="H287">
+        <f t="shared" si="4"/>
+        <v>11.700000000000003</v>
+      </c>
+      <c r="I287">
         <v>27.85</v>
       </c>
-      <c r="I287">
+      <c r="J287">
         <v>11.7</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
         <v>39753</v>
       </c>
       <c r="B288">
@@ -8806,14 +9969,18 @@
         <v>23</v>
       </c>
       <c r="H288">
+        <f t="shared" si="4"/>
+        <v>10.299999999999997</v>
+      </c>
+      <c r="I288">
         <v>28.15</v>
       </c>
-      <c r="I288">
+      <c r="J288">
         <v>10.3</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
         <v>39783</v>
       </c>
       <c r="B289">
@@ -8835,14 +10002,18 @@
         <v>25</v>
       </c>
       <c r="H289">
+        <f t="shared" si="4"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I289">
         <v>28.8</v>
       </c>
-      <c r="I289">
+      <c r="J289">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
         <v>39814</v>
       </c>
       <c r="B290">
@@ -8864,14 +10035,18 @@
         <v>25</v>
       </c>
       <c r="H290">
+        <f t="shared" si="4"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I290">
         <v>29.2</v>
       </c>
-      <c r="I290">
+      <c r="J290">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
         <v>39845</v>
       </c>
       <c r="B291">
@@ -8893,14 +10068,18 @@
         <v>23</v>
       </c>
       <c r="H291">
+        <f t="shared" si="4"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="I291">
         <v>28.4</v>
       </c>
-      <c r="I291">
+      <c r="J291">
         <v>10.8</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A292" s="2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
         <v>39873</v>
       </c>
       <c r="B292">
@@ -8922,14 +10101,18 @@
         <v>23</v>
       </c>
       <c r="H292">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="I292">
         <v>26.75</v>
       </c>
-      <c r="I292">
+      <c r="J292">
         <v>7.5</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A293" s="2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
         <v>39904</v>
       </c>
       <c r="B293">
@@ -8951,14 +10134,18 @@
         <v>24</v>
       </c>
       <c r="H293">
+        <f t="shared" si="4"/>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="I293">
         <v>28.65</v>
       </c>
-      <c r="I293">
+      <c r="J293">
         <v>9.2999999999999972</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
         <v>39934</v>
       </c>
       <c r="B294">
@@ -8980,14 +10167,18 @@
         <v>23</v>
       </c>
       <c r="H294">
+        <f t="shared" si="4"/>
+        <v>8.8999999999999986</v>
+      </c>
+      <c r="I294">
         <v>27.45</v>
       </c>
-      <c r="I294">
+      <c r="J294">
         <v>8.8999999999999986</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
         <v>39965</v>
       </c>
       <c r="B295">
@@ -9009,14 +10200,18 @@
         <v>23</v>
       </c>
       <c r="H295">
+        <f t="shared" si="4"/>
+        <v>10.600000000000001</v>
+      </c>
+      <c r="I295">
         <v>28.3</v>
       </c>
-      <c r="I295">
+      <c r="J295">
         <v>10.6</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
         <v>39995</v>
       </c>
       <c r="B296">
@@ -9038,14 +10233,18 @@
         <v>22</v>
       </c>
       <c r="H296">
+        <f t="shared" si="4"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="I296">
         <v>26.7</v>
       </c>
-      <c r="I296">
+      <c r="J296">
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
         <v>40026</v>
       </c>
       <c r="B297">
@@ -9067,14 +10266,18 @@
         <v>23</v>
       </c>
       <c r="H297">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="I297">
         <v>27.5</v>
       </c>
-      <c r="I297">
+      <c r="J297">
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A298" s="2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
         <v>40057</v>
       </c>
       <c r="B298">
@@ -9096,14 +10299,18 @@
         <v>24</v>
       </c>
       <c r="H298">
+        <f t="shared" si="4"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="I298">
         <v>28.6</v>
       </c>
-      <c r="I298">
+      <c r="J298">
         <v>9.2000000000000028</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
         <v>40087</v>
       </c>
       <c r="B299">
@@ -9125,14 +10332,18 @@
         <v>23</v>
       </c>
       <c r="H299">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I299">
         <v>28.5</v>
       </c>
-      <c r="I299">
+      <c r="J299">
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" s="2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
         <v>40118</v>
       </c>
       <c r="B300">
@@ -9154,14 +10365,18 @@
         <v>23</v>
       </c>
       <c r="H300">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="I300">
         <v>27.5</v>
       </c>
-      <c r="I300">
+      <c r="J300">
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A301" s="2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
         <v>40148</v>
       </c>
       <c r="B301">
@@ -9183,14 +10398,18 @@
         <v>24</v>
       </c>
       <c r="H301">
+        <f t="shared" si="4"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="I301">
         <v>28.7</v>
       </c>
-      <c r="I301">
+      <c r="J301">
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A302" s="2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
         <v>40179</v>
       </c>
       <c r="B302">
@@ -9212,14 +10431,18 @@
         <v>23</v>
       </c>
       <c r="H302">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I302">
         <v>28</v>
       </c>
-      <c r="I302">
+      <c r="J302">
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A303" s="2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
         <v>40210</v>
       </c>
       <c r="B303">
@@ -9241,14 +10464,18 @@
         <v>24</v>
       </c>
       <c r="H303">
+        <f t="shared" si="4"/>
+        <v>4.3999999999999986</v>
+      </c>
+      <c r="I303">
         <v>26.2</v>
       </c>
-      <c r="I303">
+      <c r="J303">
         <v>4.3999999999999986</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A304" s="2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
         <v>40238</v>
       </c>
       <c r="B304">
@@ -9270,14 +10497,18 @@
         <v>23</v>
       </c>
       <c r="H304">
+        <f t="shared" si="4"/>
+        <v>10.100000000000001</v>
+      </c>
+      <c r="I304">
         <v>28.05</v>
       </c>
-      <c r="I304">
+      <c r="J304">
         <v>10.1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A305" s="2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
         <v>40269</v>
       </c>
       <c r="B305">
@@ -9299,14 +10530,18 @@
         <v>22</v>
       </c>
       <c r="H305">
+        <f t="shared" si="4"/>
+        <v>11.700000000000003</v>
+      </c>
+      <c r="I305">
         <v>27.85</v>
       </c>
-      <c r="I305">
+      <c r="J305">
         <v>11.7</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A306" s="2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
         <v>40299</v>
       </c>
       <c r="B306">
@@ -9328,14 +10563,18 @@
         <v>23</v>
       </c>
       <c r="H306">
+        <f t="shared" si="4"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I306">
         <v>27.15</v>
       </c>
-      <c r="I306">
+      <c r="J306">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A307" s="2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
         <v>40330</v>
       </c>
       <c r="B307">
@@ -9357,14 +10596,18 @@
         <v>23</v>
       </c>
       <c r="H307">
+        <f t="shared" si="4"/>
+        <v>10.200000000000003</v>
+      </c>
+      <c r="I307">
         <v>28.1</v>
       </c>
-      <c r="I307">
+      <c r="J307">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A308" s="2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
         <v>40360</v>
       </c>
       <c r="B308">
@@ -9386,14 +10629,18 @@
         <v>23</v>
       </c>
       <c r="H308">
+        <f t="shared" si="4"/>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="I308">
         <v>28.55</v>
       </c>
-      <c r="I308">
+      <c r="J308">
         <v>11.1</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A309" s="2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
         <v>40391</v>
       </c>
       <c r="B309">
@@ -9415,14 +10662,18 @@
         <v>24</v>
       </c>
       <c r="H309">
+        <f t="shared" si="4"/>
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="I309">
         <v>28.9</v>
       </c>
-      <c r="I309">
+      <c r="J309">
         <v>9.7999999999999972</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A310" s="2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
         <v>40422</v>
       </c>
       <c r="B310">
@@ -9444,14 +10695,18 @@
         <v>24</v>
       </c>
       <c r="H310">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="I310">
         <v>28.5</v>
       </c>
-      <c r="I310">
+      <c r="J310">
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A311" s="2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
         <v>40452</v>
       </c>
       <c r="B311">
@@ -9473,14 +10728,18 @@
         <v>24</v>
       </c>
       <c r="H311">
+        <f t="shared" si="4"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="I311">
         <v>28.4</v>
       </c>
-      <c r="I311">
+      <c r="J311">
         <v>8.7999999999999972</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A312" s="2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
         <v>40483</v>
       </c>
       <c r="B312">
@@ -9502,14 +10761,18 @@
         <v>24</v>
       </c>
       <c r="H312">
+        <f t="shared" si="4"/>
+        <v>8.5</v>
+      </c>
+      <c r="I312">
         <v>28.25</v>
       </c>
-      <c r="I312">
+      <c r="J312">
         <v>8.5</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A313" s="2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
         <v>40513</v>
       </c>
       <c r="B313">
@@ -9531,14 +10794,18 @@
         <v>24</v>
       </c>
       <c r="H313">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I313">
         <v>28</v>
       </c>
-      <c r="I313">
+      <c r="J313">
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A314" s="2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
         <v>40544</v>
       </c>
       <c r="B314">
@@ -9560,14 +10827,18 @@
         <v>24</v>
       </c>
       <c r="H314">
+        <f t="shared" si="4"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="I314">
         <v>28.6</v>
       </c>
-      <c r="I314">
+      <c r="J314">
         <v>9.2000000000000028</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
         <v>40575</v>
       </c>
       <c r="B315">
@@ -9589,14 +10860,18 @@
         <v>24</v>
       </c>
       <c r="H315">
+        <f t="shared" si="4"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="I315">
         <v>28.8</v>
       </c>
-      <c r="I315">
+      <c r="J315">
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A316" s="2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
         <v>40603</v>
       </c>
       <c r="B316">
@@ -9618,14 +10893,18 @@
         <v>25</v>
       </c>
       <c r="H316">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I316">
         <v>28.5</v>
       </c>
-      <c r="I316">
+      <c r="J316">
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A317" s="2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
         <v>40634</v>
       </c>
       <c r="B317">
@@ -9647,14 +10926,18 @@
         <v>24</v>
       </c>
       <c r="H317">
+        <f t="shared" si="4"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="I317">
         <v>28.1</v>
       </c>
-      <c r="I317">
+      <c r="J317">
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A318" s="2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
         <v>40664</v>
       </c>
       <c r="B318">
@@ -9676,14 +10959,18 @@
         <v>24</v>
       </c>
       <c r="H318">
+        <f t="shared" si="4"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="I318">
         <v>27.3</v>
       </c>
-      <c r="I318">
+      <c r="J318">
         <v>6.6000000000000014</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A319" s="2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
         <v>40695</v>
       </c>
       <c r="B319">
@@ -9705,14 +10992,18 @@
         <v>24</v>
       </c>
       <c r="H319">
+        <f t="shared" si="4"/>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="I319">
         <v>27.2</v>
       </c>
-      <c r="I319">
+      <c r="J319">
         <v>6.3999999999999986</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A320" s="2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
         <v>40725</v>
       </c>
       <c r="B320">
@@ -9734,14 +11025,18 @@
         <v>23</v>
       </c>
       <c r="H320">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I320">
         <v>28</v>
       </c>
-      <c r="I320">
+      <c r="J320">
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A321" s="2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
         <v>40756</v>
       </c>
       <c r="B321">
@@ -9763,14 +11058,18 @@
         <v>24</v>
       </c>
       <c r="H321">
+        <f t="shared" si="4"/>
+        <v>9.1000000000000014</v>
+      </c>
+      <c r="I321">
         <v>28.55</v>
       </c>
-      <c r="I321">
+      <c r="J321">
         <v>9.1000000000000014</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A322" s="2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
         <v>40787</v>
       </c>
       <c r="B322">
@@ -9792,14 +11091,18 @@
         <v>24</v>
       </c>
       <c r="H322">
+        <f t="shared" si="4"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="I322">
         <v>28.8</v>
       </c>
-      <c r="I322">
+      <c r="J322">
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A323" s="2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
         <v>40817</v>
       </c>
       <c r="B323">
@@ -9821,14 +11124,18 @@
         <v>23</v>
       </c>
       <c r="H323">
+        <f t="shared" ref="H323:H386" si="5">(F323-G323)</f>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="I323">
         <v>28.4</v>
       </c>
-      <c r="I323">
+      <c r="J323">
         <v>10.8</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A324" s="2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
         <v>40848</v>
       </c>
       <c r="B324">
@@ -9850,14 +11157,18 @@
         <v>22</v>
       </c>
       <c r="H324">
+        <f t="shared" si="5"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="I324">
         <v>27.6</v>
       </c>
-      <c r="I324">
+      <c r="J324">
         <v>11.2</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A325" s="2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
         <v>40878</v>
       </c>
       <c r="B325">
@@ -9879,14 +11190,18 @@
         <v>24</v>
       </c>
       <c r="H325">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I325">
         <v>28.5</v>
       </c>
-      <c r="I325">
+      <c r="J325">
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A326" s="2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
         <v>40909</v>
       </c>
       <c r="B326">
@@ -9908,14 +11223,18 @@
         <v>23</v>
       </c>
       <c r="H326">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I326">
         <v>26.5</v>
       </c>
-      <c r="I326">
+      <c r="J326">
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A327" s="2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
         <v>40940</v>
       </c>
       <c r="B327">
@@ -9937,14 +11256,18 @@
         <v>25</v>
       </c>
       <c r="H327">
+        <f t="shared" si="5"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="I327">
         <v>28.6</v>
       </c>
-      <c r="I327">
+      <c r="J327">
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A328" s="2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
         <v>40969</v>
       </c>
       <c r="B328">
@@ -9966,14 +11289,18 @@
         <v>23</v>
       </c>
       <c r="H328">
+        <f t="shared" si="5"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I328">
         <v>26.8</v>
       </c>
-      <c r="I328">
+      <c r="J328">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A329" s="2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
         <v>41000</v>
       </c>
       <c r="B329">
@@ -9995,14 +11322,18 @@
         <v>24</v>
       </c>
       <c r="H329">
+        <f t="shared" si="5"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="I329">
         <v>27.9</v>
       </c>
-      <c r="I329">
+      <c r="J329">
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A330" s="2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
         <v>41030</v>
       </c>
       <c r="B330">
@@ -10024,14 +11355,18 @@
         <v>24</v>
       </c>
       <c r="H330">
+        <f t="shared" si="5"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="I330">
         <v>27.3</v>
       </c>
-      <c r="I330">
+      <c r="J330">
         <v>6.6000000000000014</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A331" s="2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
         <v>41061</v>
       </c>
       <c r="B331">
@@ -10053,14 +11388,18 @@
         <v>23</v>
       </c>
       <c r="H331">
+        <f t="shared" si="5"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I331">
         <v>27.15</v>
       </c>
-      <c r="I331">
+      <c r="J331">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A332" s="2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
         <v>41091</v>
       </c>
       <c r="B332">
@@ -10082,14 +11421,18 @@
         <v>24</v>
       </c>
       <c r="H332">
+        <f t="shared" si="5"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="I332">
         <v>28.05</v>
       </c>
-      <c r="I332">
+      <c r="J332">
         <v>8.1000000000000014</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A333" s="2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
         <v>41122</v>
       </c>
       <c r="B333">
@@ -10111,14 +11454,18 @@
         <v>23</v>
       </c>
       <c r="H333">
+        <f t="shared" si="5"/>
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="I333">
         <v>27.9</v>
       </c>
-      <c r="I333">
+      <c r="J333">
         <v>9.7999999999999972</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A334" s="2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
         <v>41153</v>
       </c>
       <c r="B334">
@@ -10140,14 +11487,18 @@
         <v>23</v>
       </c>
       <c r="H334">
+        <f t="shared" si="5"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I334">
         <v>27.4</v>
       </c>
-      <c r="I334">
+      <c r="J334">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A335" s="2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
         <v>41183</v>
       </c>
       <c r="B335">
@@ -10169,14 +11520,18 @@
         <v>22</v>
       </c>
       <c r="H335">
+        <f t="shared" si="5"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I335">
         <v>26.4</v>
       </c>
-      <c r="I335">
+      <c r="J335">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A336" s="2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
         <v>41214</v>
       </c>
       <c r="B336">
@@ -10198,14 +11553,18 @@
         <v>23</v>
       </c>
       <c r="H336">
+        <f t="shared" si="5"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="I336">
         <v>27.3</v>
       </c>
-      <c r="I336">
+      <c r="J336">
         <v>8.6000000000000014</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A337" s="2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
         <v>41244</v>
       </c>
       <c r="B337">
@@ -10227,14 +11586,18 @@
         <v>23</v>
       </c>
       <c r="H337">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I337">
         <v>27.5</v>
       </c>
-      <c r="I337">
+      <c r="J337">
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A338" s="2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
         <v>41275</v>
       </c>
       <c r="B338">
@@ -10256,14 +11619,18 @@
         <v>23</v>
       </c>
       <c r="H338">
+        <f t="shared" si="5"/>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="I338">
         <v>27.95</v>
       </c>
-      <c r="I338">
+      <c r="J338">
         <v>9.8999999999999986</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A339" s="2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
         <v>41306</v>
       </c>
       <c r="B339">
@@ -10285,14 +11652,18 @@
         <v>23</v>
       </c>
       <c r="H339">
+        <f t="shared" si="5"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="I339">
         <v>26.9</v>
       </c>
-      <c r="I339">
+      <c r="J339">
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A340" s="2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
         <v>41334</v>
       </c>
       <c r="B340">
@@ -10314,14 +11685,18 @@
         <v>23</v>
       </c>
       <c r="H340">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I340">
         <v>28</v>
       </c>
-      <c r="I340">
+      <c r="J340">
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A341" s="2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
         <v>41365</v>
       </c>
       <c r="B341">
@@ -10343,14 +11718,18 @@
         <v>23</v>
       </c>
       <c r="H341">
+        <f t="shared" si="5"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I341">
         <v>27.2</v>
       </c>
-      <c r="I341">
+      <c r="J341">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A342" s="2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
         <v>41395</v>
       </c>
       <c r="B342">
@@ -10372,14 +11751,18 @@
         <v>23</v>
       </c>
       <c r="H342">
+        <f t="shared" si="5"/>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="I342">
         <v>28.2</v>
       </c>
-      <c r="I342">
+      <c r="J342">
         <v>10.4</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A343" s="2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
         <v>41426</v>
       </c>
       <c r="B343">
@@ -10401,14 +11784,18 @@
         <v>25</v>
       </c>
       <c r="H343">
+        <f t="shared" si="5"/>
+        <v>7.7999999999999972</v>
+      </c>
+      <c r="I343">
         <v>28.9</v>
       </c>
-      <c r="I343">
+      <c r="J343">
         <v>7.7999999999999972</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A344" s="2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
         <v>41456</v>
       </c>
       <c r="B344">
@@ -10430,14 +11817,18 @@
         <v>24</v>
       </c>
       <c r="H344">
+        <f t="shared" si="5"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="I344">
         <v>28.4</v>
       </c>
-      <c r="I344">
+      <c r="J344">
         <v>8.7999999999999972</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A345" s="2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
         <v>41487</v>
       </c>
       <c r="B345">
@@ -10459,14 +11850,18 @@
         <v>24</v>
       </c>
       <c r="H345">
+        <f t="shared" si="5"/>
+        <v>8.8999999999999986</v>
+      </c>
+      <c r="I345">
         <v>28.45</v>
       </c>
-      <c r="I345">
+      <c r="J345">
         <v>8.8999999999999986</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A346" s="2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
         <v>41518</v>
       </c>
       <c r="B346">
@@ -10488,14 +11883,18 @@
         <v>25</v>
       </c>
       <c r="H346">
+        <f t="shared" si="5"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="I346">
         <v>27.9</v>
       </c>
-      <c r="I346">
+      <c r="J346">
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A347" s="2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
         <v>41548</v>
       </c>
       <c r="B347">
@@ -10517,14 +11916,18 @@
         <v>23</v>
       </c>
       <c r="H347">
+        <f t="shared" si="5"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="I347">
         <v>27.7</v>
       </c>
-      <c r="I347">
+      <c r="J347">
         <v>9.3999999999999986</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A348" s="2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
         <v>41579</v>
       </c>
       <c r="B348">
@@ -10546,14 +11949,18 @@
         <v>24</v>
       </c>
       <c r="H348">
+        <f t="shared" si="5"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I348">
         <v>28.2</v>
       </c>
-      <c r="I348">
+      <c r="J348">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A349" s="2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
         <v>41609</v>
       </c>
       <c r="B349">
@@ -10575,14 +11982,18 @@
         <v>23</v>
       </c>
       <c r="H349">
+        <f t="shared" si="5"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I349">
         <v>27.35</v>
       </c>
-      <c r="I349">
+      <c r="J349">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A350" s="2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
         <v>41640</v>
       </c>
       <c r="B350">
@@ -10604,14 +12015,18 @@
         <v>24</v>
       </c>
       <c r="H350">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I350">
         <v>28.5</v>
       </c>
-      <c r="I350">
+      <c r="J350">
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A351" s="2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
         <v>41671</v>
       </c>
       <c r="B351">
@@ -10633,14 +12048,18 @@
         <v>23</v>
       </c>
       <c r="H351">
+        <f t="shared" si="5"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="I351">
         <v>26.85</v>
       </c>
-      <c r="I351">
+      <c r="J351">
         <v>7.6999999999999993</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A352" s="2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
         <v>41699</v>
       </c>
       <c r="B352">
@@ -10662,14 +12081,18 @@
         <v>22</v>
       </c>
       <c r="H352">
+        <f t="shared" si="5"/>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="I352">
         <v>27.2</v>
       </c>
-      <c r="I352">
+      <c r="J352">
         <v>10.4</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A353" s="2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
         <v>41730</v>
       </c>
       <c r="B353">
@@ -10691,14 +12114,18 @@
         <v>23</v>
       </c>
       <c r="H353">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I353">
         <v>27.5</v>
       </c>
-      <c r="I353">
+      <c r="J353">
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A354" s="2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
         <v>41760</v>
       </c>
       <c r="B354">
@@ -10720,14 +12147,18 @@
         <v>23</v>
       </c>
       <c r="H354">
+        <f t="shared" si="5"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="I354">
         <v>27.6</v>
       </c>
-      <c r="I354">
+      <c r="J354">
         <v>9.2000000000000028</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A355" s="2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
         <v>41791</v>
       </c>
       <c r="B355">
@@ -10749,14 +12180,18 @@
         <v>23</v>
       </c>
       <c r="H355">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I355">
         <v>26.5</v>
       </c>
-      <c r="I355">
+      <c r="J355">
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A356" s="2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
         <v>41821</v>
       </c>
       <c r="B356">
@@ -10778,14 +12213,18 @@
         <v>24</v>
       </c>
       <c r="H356">
+        <f t="shared" si="5"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="I356">
         <v>28.6</v>
       </c>
-      <c r="I356">
+      <c r="J356">
         <v>9.2000000000000028</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A357" s="2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
         <v>41852</v>
       </c>
       <c r="B357">
@@ -10807,14 +12246,18 @@
         <v>23</v>
       </c>
       <c r="H357">
+        <f t="shared" si="5"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="I357">
         <v>27.3</v>
       </c>
-      <c r="I357">
+      <c r="J357">
         <v>8.6000000000000014</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A358" s="2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
         <v>41883</v>
       </c>
       <c r="B358">
@@ -10836,14 +12279,18 @@
         <v>25</v>
       </c>
       <c r="H358">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="I358">
         <v>27.75</v>
       </c>
-      <c r="I358">
+      <c r="J358">
         <v>5.5</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A359" s="2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
         <v>41913</v>
       </c>
       <c r="B359">
@@ -10865,14 +12312,18 @@
         <v>24</v>
       </c>
       <c r="H359">
+        <f t="shared" si="5"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I359">
         <v>27.8</v>
       </c>
-      <c r="I359">
+      <c r="J359">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A360" s="2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
         <v>41944</v>
       </c>
       <c r="B360">
@@ -10894,14 +12345,18 @@
         <v>23</v>
       </c>
       <c r="H360">
+        <f t="shared" si="5"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="I360">
         <v>27.05</v>
       </c>
-      <c r="I360">
+      <c r="J360">
         <v>8.1000000000000014</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A361" s="2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
         <v>41974</v>
       </c>
       <c r="B361">
@@ -10923,14 +12378,18 @@
         <v>23</v>
       </c>
       <c r="H361">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I361">
         <v>27.5</v>
       </c>
-      <c r="I361">
+      <c r="J361">
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A362" s="2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
         <v>42005</v>
       </c>
       <c r="B362">
@@ -10952,14 +12411,18 @@
         <v>23</v>
       </c>
       <c r="H362">
+        <f t="shared" si="5"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I362">
         <v>26.6</v>
       </c>
-      <c r="I362">
+      <c r="J362">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A363" s="2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
         <v>42036</v>
       </c>
       <c r="B363">
@@ -10981,14 +12444,18 @@
         <v>24</v>
       </c>
       <c r="H363">
+        <f t="shared" si="5"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="I363">
         <v>28.35</v>
       </c>
-      <c r="I363">
+      <c r="J363">
         <v>8.7000000000000028</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A364" s="2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
         <v>42064</v>
       </c>
       <c r="B364">
@@ -11010,14 +12477,18 @@
         <v>25</v>
       </c>
       <c r="H364">
+        <f t="shared" si="5"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="I364">
         <v>27.9</v>
       </c>
-      <c r="I364">
+      <c r="J364">
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A365" s="2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
         <v>42095</v>
       </c>
       <c r="B365">
@@ -11039,14 +12510,18 @@
         <v>24</v>
       </c>
       <c r="H365">
+        <f t="shared" si="5"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="I365">
         <v>27.9</v>
       </c>
-      <c r="I365">
+      <c r="J365">
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A366" s="2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
         <v>42125</v>
       </c>
       <c r="B366">
@@ -11068,14 +12543,18 @@
         <v>24</v>
       </c>
       <c r="H366">
+        <f t="shared" si="5"/>
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="I366">
         <v>27.55</v>
       </c>
-      <c r="I366">
+      <c r="J366">
         <v>7.1000000000000014</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A367" s="2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
         <v>42156</v>
       </c>
       <c r="B367">
@@ -11097,14 +12576,18 @@
         <v>24</v>
       </c>
       <c r="H367">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
+      </c>
+      <c r="I367">
         <v>28.25</v>
       </c>
-      <c r="I367">
+      <c r="J367">
         <v>8.5</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A368" s="2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
         <v>42186</v>
       </c>
       <c r="B368">
@@ -11126,14 +12609,18 @@
         <v>25</v>
       </c>
       <c r="H368">
+        <f t="shared" si="5"/>
+        <v>9.1000000000000014</v>
+      </c>
+      <c r="I368">
         <v>29.55</v>
       </c>
-      <c r="I368">
+      <c r="J368">
         <v>9.1000000000000014</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A369" s="2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
         <v>42217</v>
       </c>
       <c r="B369">
@@ -11155,14 +12642,18 @@
         <v>23</v>
       </c>
       <c r="H369">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I369">
         <v>27</v>
       </c>
-      <c r="I369">
+      <c r="J369">
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A370" s="2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
         <v>42248</v>
       </c>
       <c r="B370">
@@ -11184,14 +12675,18 @@
         <v>24</v>
       </c>
       <c r="H370">
+        <f t="shared" si="5"/>
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="I370">
         <v>27.55</v>
       </c>
-      <c r="I370">
+      <c r="J370">
         <v>7.1000000000000014</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A371" s="2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
         <v>42278</v>
       </c>
       <c r="B371">
@@ -11213,14 +12708,18 @@
         <v>24</v>
       </c>
       <c r="H371">
+        <f t="shared" si="5"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="I371">
         <v>28.1</v>
       </c>
-      <c r="I371">
+      <c r="J371">
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A372" s="2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
         <v>42309</v>
       </c>
       <c r="B372">
@@ -11242,14 +12741,18 @@
         <v>24</v>
       </c>
       <c r="H372">
+        <f t="shared" si="5"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="I372">
         <v>28.1</v>
       </c>
-      <c r="I372">
+      <c r="J372">
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A373" s="2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
         <v>42339</v>
       </c>
       <c r="B373">
@@ -11271,14 +12774,18 @@
         <v>24</v>
       </c>
       <c r="H373">
+        <f t="shared" si="5"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="I373">
         <v>27.85</v>
       </c>
-      <c r="I373">
+      <c r="J373">
         <v>7.6999999999999993</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A374" s="2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
         <v>42370</v>
       </c>
       <c r="B374">
@@ -11300,14 +12807,18 @@
         <v>24</v>
       </c>
       <c r="H374">
+        <f t="shared" si="5"/>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="I374">
         <v>26.65</v>
       </c>
-      <c r="I374">
+      <c r="J374">
         <v>5.3000000000000007</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A375" s="2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
         <v>42401</v>
       </c>
       <c r="B375">
@@ -11329,14 +12840,18 @@
         <v>24</v>
       </c>
       <c r="H375">
+        <f t="shared" si="5"/>
+        <v>8.2999999999999972</v>
+      </c>
+      <c r="I375">
         <v>28.15</v>
       </c>
-      <c r="I375">
+      <c r="J375">
         <v>8.2999999999999972</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A376" s="2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
         <v>42430</v>
       </c>
       <c r="B376">
@@ -11358,14 +12873,18 @@
         <v>24</v>
       </c>
       <c r="H376">
+        <f t="shared" si="5"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I376">
         <v>27.8</v>
       </c>
-      <c r="I376">
+      <c r="J376">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A377" s="2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
         <v>42461</v>
       </c>
       <c r="B377">
@@ -11387,14 +12906,18 @@
         <v>23</v>
       </c>
       <c r="H377">
+        <f t="shared" si="5"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I377">
         <v>26.6</v>
       </c>
-      <c r="I377">
+      <c r="J377">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A378" s="2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
         <v>42491</v>
       </c>
       <c r="B378">
@@ -11416,14 +12939,18 @@
         <v>24</v>
       </c>
       <c r="H378">
+        <f t="shared" si="5"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="I378">
         <v>27.1</v>
       </c>
-      <c r="I378">
+      <c r="J378">
         <v>6.1999999999999993</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A379" s="2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
         <v>42522</v>
       </c>
       <c r="B379">
@@ -11445,14 +12972,18 @@
         <v>24</v>
       </c>
       <c r="H379">
+        <f t="shared" si="5"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I379">
         <v>27.6</v>
       </c>
-      <c r="I379">
+      <c r="J379">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A380" s="2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
         <v>42552</v>
       </c>
       <c r="B380">
@@ -11474,14 +13005,18 @@
         <v>24</v>
       </c>
       <c r="H380">
+        <f t="shared" si="5"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="I380">
         <v>27.9</v>
       </c>
-      <c r="I380">
+      <c r="J380">
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A381" s="2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
         <v>42583</v>
       </c>
       <c r="B381">
@@ -11503,14 +13038,18 @@
         <v>24</v>
       </c>
       <c r="H381">
+        <f t="shared" si="5"/>
+        <v>9.7000000000000028</v>
+      </c>
+      <c r="I381">
         <v>28.85</v>
       </c>
-      <c r="I381">
+      <c r="J381">
         <v>9.7000000000000028</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A382" s="2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
         <v>42614</v>
       </c>
       <c r="B382">
@@ -11532,14 +13071,18 @@
         <v>24</v>
       </c>
       <c r="H382">
+        <f t="shared" si="5"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="I382">
         <v>26.9</v>
       </c>
-      <c r="I382">
+      <c r="J382">
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A383" s="2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
         <v>42644</v>
       </c>
       <c r="B383">
@@ -11561,14 +13104,18 @@
         <v>24</v>
       </c>
       <c r="H383">
+        <f t="shared" si="5"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I383">
         <v>27.6</v>
       </c>
-      <c r="I383">
+      <c r="J383">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A384" s="2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
         <v>42675</v>
       </c>
       <c r="B384">
@@ -11590,14 +13137,18 @@
         <v>23</v>
       </c>
       <c r="H384">
+        <f t="shared" si="5"/>
+        <v>6.8999999999999986</v>
+      </c>
+      <c r="I384">
         <v>26.45</v>
       </c>
-      <c r="I384">
+      <c r="J384">
         <v>6.8999999999999986</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A385" s="2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
         <v>42705</v>
       </c>
       <c r="B385">
@@ -11619,14 +13170,18 @@
         <v>23</v>
       </c>
       <c r="H385">
+        <f t="shared" si="5"/>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="I385">
         <v>27.65</v>
       </c>
-      <c r="I385">
+      <c r="J385">
         <v>9.2999999999999972</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A386" s="2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
         <v>42736</v>
       </c>
       <c r="B386">
@@ -11648,14 +13203,18 @@
         <v>24</v>
       </c>
       <c r="H386">
+        <f t="shared" si="5"/>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="I386">
         <v>27.2</v>
       </c>
-      <c r="I386">
+      <c r="J386">
         <v>6.3999999999999986</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A387" s="2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
         <v>42767</v>
       </c>
       <c r="B387">
@@ -11677,14 +13236,18 @@
         <v>24</v>
       </c>
       <c r="H387">
+        <f t="shared" ref="H387:H433" si="6">(F387-G387)</f>
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="I387">
         <v>27.55</v>
       </c>
-      <c r="I387">
+      <c r="J387">
         <v>7.1000000000000014</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A388" s="2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
         <v>42795</v>
       </c>
       <c r="B388">
@@ -11706,14 +13269,18 @@
         <v>24</v>
       </c>
       <c r="H388">
+        <f t="shared" si="6"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="I388">
         <v>28.8</v>
       </c>
-      <c r="I388">
+      <c r="J388">
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A389" s="2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
         <v>42826</v>
       </c>
       <c r="B389">
@@ -11735,14 +13302,18 @@
         <v>23</v>
       </c>
       <c r="H389">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="I389">
         <v>28.5</v>
       </c>
-      <c r="I389">
+      <c r="J389">
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A390" s="2">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
         <v>42856</v>
       </c>
       <c r="B390">
@@ -11764,14 +13335,18 @@
         <v>23</v>
       </c>
       <c r="H390">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="I390">
         <v>27.5</v>
       </c>
-      <c r="I390">
+      <c r="J390">
         <v>9</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A391" s="2">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
         <v>42887</v>
       </c>
       <c r="B391">
@@ -11793,14 +13368,18 @@
         <v>23</v>
       </c>
       <c r="H391">
+        <f t="shared" si="6"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="I391">
         <v>26.9</v>
       </c>
-      <c r="I391">
+      <c r="J391">
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A392" s="2">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
         <v>42917</v>
       </c>
       <c r="B392">
@@ -11822,14 +13401,18 @@
         <v>23</v>
       </c>
       <c r="H392">
+        <f t="shared" si="6"/>
+        <v>10.600000000000001</v>
+      </c>
+      <c r="I392">
         <v>28.3</v>
       </c>
-      <c r="I392">
+      <c r="J392">
         <v>10.6</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A393" s="2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
         <v>42948</v>
       </c>
       <c r="B393">
@@ -11851,14 +13434,18 @@
         <v>24</v>
       </c>
       <c r="H393">
+        <f t="shared" si="6"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="I393">
         <v>27.4</v>
       </c>
-      <c r="I393">
+      <c r="J393">
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A394" s="2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
         <v>42979</v>
       </c>
       <c r="B394">
@@ -11880,14 +13467,18 @@
         <v>24</v>
       </c>
       <c r="H394">
+        <f t="shared" si="6"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="I394">
         <v>28.3</v>
       </c>
-      <c r="I394">
+      <c r="J394">
         <v>8.6000000000000014</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A395" s="2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
         <v>43009</v>
       </c>
       <c r="B395">
@@ -11909,14 +13500,18 @@
         <v>23</v>
       </c>
       <c r="H395">
+        <f t="shared" si="6"/>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="I395">
         <v>27.6</v>
       </c>
-      <c r="I395">
+      <c r="J395">
         <v>9.2000000000000028</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A396" s="2">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
         <v>43040</v>
       </c>
       <c r="B396">
@@ -11938,14 +13533,18 @@
         <v>23</v>
       </c>
       <c r="H396">
+        <f t="shared" si="6"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="I396">
         <v>26.9</v>
       </c>
-      <c r="I396">
+      <c r="J396">
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A397" s="2">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
         <v>43070</v>
       </c>
       <c r="B397">
@@ -11967,14 +13566,18 @@
         <v>24</v>
       </c>
       <c r="H397">
+        <f t="shared" si="6"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="I397">
         <v>26.9</v>
       </c>
-      <c r="I397">
+      <c r="J397">
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A398" s="2">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
         <v>43101</v>
       </c>
       <c r="B398">
@@ -11996,14 +13599,18 @@
         <v>23</v>
       </c>
       <c r="H398">
+        <f t="shared" si="6"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="I398">
         <v>26.9</v>
       </c>
-      <c r="I398">
+      <c r="J398">
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A399" s="2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
         <v>43132</v>
       </c>
       <c r="B399">
@@ -12025,14 +13632,18 @@
         <v>23</v>
       </c>
       <c r="H399">
+        <f t="shared" si="6"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="I399">
         <v>26.1</v>
       </c>
-      <c r="I399">
+      <c r="J399">
         <v>6.1999999999999993</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A400" s="2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
         <v>43160</v>
       </c>
       <c r="B400">
@@ -12054,14 +13665,18 @@
         <v>23</v>
       </c>
       <c r="H400">
+        <f t="shared" si="6"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="I400">
         <v>27.8</v>
       </c>
-      <c r="I400">
+      <c r="J400">
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A401" s="2">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
         <v>43191</v>
       </c>
       <c r="B401">
@@ -12083,14 +13698,18 @@
         <v>23</v>
       </c>
       <c r="H401">
+        <f t="shared" si="6"/>
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="I401">
         <v>27.9</v>
       </c>
-      <c r="I401">
+      <c r="J401">
         <v>9.7999999999999972</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A402" s="2">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
         <v>43221</v>
       </c>
       <c r="B402">
@@ -12112,14 +13731,18 @@
         <v>23</v>
       </c>
       <c r="H402">
+        <f t="shared" si="6"/>
+        <v>8.8999999999999986</v>
+      </c>
+      <c r="I402">
         <v>27.45</v>
       </c>
-      <c r="I402">
+      <c r="J402">
         <v>8.8999999999999986</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A403" s="2">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
         <v>43252</v>
       </c>
       <c r="B403">
@@ -12141,14 +13764,18 @@
         <v>23</v>
       </c>
       <c r="H403">
+        <f t="shared" si="6"/>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="I403">
         <v>26.15</v>
       </c>
-      <c r="I403">
+      <c r="J403">
         <v>6.3000000000000007</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A404" s="2">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
         <v>43282</v>
       </c>
       <c r="B404">
@@ -12170,14 +13797,18 @@
         <v>22</v>
       </c>
       <c r="H404">
+        <f t="shared" si="6"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I404">
         <v>25.8</v>
       </c>
-      <c r="I404">
+      <c r="J404">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A405" s="2">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
         <v>43313</v>
       </c>
       <c r="B405">
@@ -12199,14 +13830,18 @@
         <v>23</v>
       </c>
       <c r="H405">
+        <f t="shared" si="6"/>
+        <v>9.5</v>
+      </c>
+      <c r="I405">
         <v>27.75</v>
       </c>
-      <c r="I405">
+      <c r="J405">
         <v>9.5</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A406" s="2">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
         <v>43344</v>
       </c>
       <c r="B406">
@@ -12228,14 +13863,18 @@
         <v>23</v>
       </c>
       <c r="H406">
+        <f t="shared" si="6"/>
+        <v>6.8999999999999986</v>
+      </c>
+      <c r="I406">
         <v>26.45</v>
       </c>
-      <c r="I406">
+      <c r="J406">
         <v>6.8999999999999986</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A407" s="2">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
         <v>43374</v>
       </c>
       <c r="B407">
@@ -12257,14 +13896,18 @@
         <v>22</v>
       </c>
       <c r="H407">
+        <f t="shared" si="6"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I407">
         <v>26.65</v>
       </c>
-      <c r="I407">
+      <c r="J407">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A408" s="2">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
         <v>43405</v>
       </c>
       <c r="B408">
@@ -12286,14 +13929,18 @@
         <v>23</v>
       </c>
       <c r="H408">
+        <f t="shared" si="6"/>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="I408">
         <v>26.35</v>
       </c>
-      <c r="I408">
+      <c r="J408">
         <v>6.6999999999999993</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A409" s="2">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
         <v>43435</v>
       </c>
       <c r="B409">
@@ -12315,14 +13962,18 @@
         <v>22</v>
       </c>
       <c r="H409">
+        <f t="shared" si="6"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I409">
         <v>26.1</v>
       </c>
-      <c r="I409">
+      <c r="J409">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A410" s="2">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
         <v>43466</v>
       </c>
       <c r="B410">
@@ -12344,14 +13995,18 @@
         <v>23</v>
       </c>
       <c r="H410">
+        <f t="shared" si="6"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="I410">
         <v>28.4</v>
       </c>
-      <c r="I410">
+      <c r="J410">
         <v>10.8</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A411" s="2">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
         <v>43497</v>
       </c>
       <c r="B411">
@@ -12373,14 +14028,18 @@
         <v>22</v>
       </c>
       <c r="H411">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="I411">
         <v>25.5</v>
       </c>
-      <c r="I411">
+      <c r="J411">
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A412" s="2">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
         <v>43525</v>
       </c>
       <c r="B412">
@@ -12402,14 +14061,18 @@
         <v>22</v>
       </c>
       <c r="H412">
+        <f t="shared" si="6"/>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="I412">
         <v>27.7</v>
       </c>
-      <c r="I412">
+      <c r="J412">
         <v>11.4</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A413" s="2">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A413" s="3">
         <v>43556</v>
       </c>
       <c r="B413">
@@ -12431,14 +14094,18 @@
         <v>24</v>
       </c>
       <c r="H413">
+        <f t="shared" si="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="I413">
         <v>27.25</v>
       </c>
-      <c r="I413">
+      <c r="J413">
         <v>6.5</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A414" s="2">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
         <v>43586</v>
       </c>
       <c r="B414">
@@ -12460,14 +14127,18 @@
         <v>23</v>
       </c>
       <c r="H414">
+        <f t="shared" si="6"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="I414">
         <v>26.9</v>
       </c>
-      <c r="I414">
+      <c r="J414">
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A415" s="2">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
         <v>43617</v>
       </c>
       <c r="B415">
@@ -12489,14 +14160,18 @@
         <v>23</v>
       </c>
       <c r="H415">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="I415">
         <v>27.5</v>
       </c>
-      <c r="I415">
+      <c r="J415">
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A416" s="2">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
         <v>43647</v>
       </c>
       <c r="B416">
@@ -12518,14 +14193,18 @@
         <v>23</v>
       </c>
       <c r="H416">
+        <f t="shared" si="6"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I416">
         <v>27.15</v>
       </c>
-      <c r="I416">
+      <c r="J416">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A417" s="2">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A417" s="3">
         <v>43678</v>
       </c>
       <c r="B417">
@@ -12547,14 +14226,18 @@
         <v>23</v>
       </c>
       <c r="H417">
+        <f t="shared" si="6"/>
+        <v>4.3999999999999986</v>
+      </c>
+      <c r="I417">
         <v>25.2</v>
       </c>
-      <c r="I417">
+      <c r="J417">
         <v>4.3999999999999986</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A418" s="2">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
         <v>43709</v>
       </c>
       <c r="B418">
@@ -12576,14 +14259,18 @@
         <v>22</v>
       </c>
       <c r="H418">
+        <f t="shared" si="6"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I418">
         <v>26.2</v>
       </c>
-      <c r="I418">
+      <c r="J418">
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A419" s="2">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A419" s="3">
         <v>43739</v>
       </c>
       <c r="B419">
@@ -12605,14 +14292,18 @@
         <v>22</v>
       </c>
       <c r="H419">
+        <f t="shared" si="6"/>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="I419">
         <v>27.2</v>
       </c>
-      <c r="I419">
+      <c r="J419">
         <v>10.4</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A420" s="2">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
         <v>43770</v>
       </c>
       <c r="B420">
@@ -12634,14 +14325,18 @@
         <v>22</v>
       </c>
       <c r="H420">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I420">
         <v>27</v>
       </c>
-      <c r="I420">
+      <c r="J420">
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A421" s="2">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A421" s="3">
         <v>43800</v>
       </c>
       <c r="B421">
@@ -12663,14 +14358,18 @@
         <v>24</v>
       </c>
       <c r="H421">
+        <f t="shared" si="6"/>
+        <v>6.8999999999999986</v>
+      </c>
+      <c r="I421">
         <v>27.45</v>
       </c>
-      <c r="I421">
+      <c r="J421">
         <v>6.8999999999999986</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A422" s="2">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A422" s="3">
         <v>43831</v>
       </c>
       <c r="B422">
@@ -12692,14 +14391,18 @@
         <v>24</v>
       </c>
       <c r="H422">
+        <f t="shared" si="6"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="I422">
         <v>28.35</v>
       </c>
-      <c r="I422">
+      <c r="J422">
         <v>8.7000000000000028</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A423" s="2">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A423" s="3">
         <v>43862</v>
       </c>
       <c r="B423">
@@ -12721,14 +14424,18 @@
         <v>23</v>
       </c>
       <c r="H423">
+        <f t="shared" si="6"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I423">
         <v>27.4</v>
       </c>
-      <c r="I423">
+      <c r="J423">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A424" s="2">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A424" s="3">
         <v>43891</v>
       </c>
       <c r="B424">
@@ -12750,14 +14457,18 @@
         <v>24</v>
       </c>
       <c r="H424">
+        <f t="shared" si="6"/>
+        <v>3.6999999999999993</v>
+      </c>
+      <c r="I424">
         <v>25.85</v>
       </c>
-      <c r="I424">
+      <c r="J424">
         <v>3.6999999999999988</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A425" s="2">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A425" s="3">
         <v>43922</v>
       </c>
       <c r="B425">
@@ -12779,14 +14490,18 @@
         <v>22</v>
       </c>
       <c r="H425">
+        <f t="shared" si="6"/>
+        <v>11.299999999999997</v>
+      </c>
+      <c r="I425">
         <v>27.65</v>
       </c>
-      <c r="I425">
+      <c r="J425">
         <v>11.3</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A426" s="2">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A426" s="3">
         <v>43952</v>
       </c>
       <c r="B426">
@@ -12808,14 +14523,18 @@
         <v>23</v>
       </c>
       <c r="H426">
+        <f t="shared" si="6"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="I426">
         <v>26.8</v>
       </c>
-      <c r="I426">
+      <c r="J426">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A427" s="2">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A427" s="3">
         <v>43983</v>
       </c>
       <c r="B427">
@@ -12837,14 +14556,18 @@
         <v>23</v>
       </c>
       <c r="H427">
+        <f t="shared" si="6"/>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="I427">
         <v>27.65</v>
       </c>
-      <c r="I427">
+      <c r="J427">
         <v>9.2999999999999972</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A428" s="2">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A428" s="3">
         <v>44013</v>
       </c>
       <c r="B428">
@@ -12866,14 +14589,18 @@
         <v>23</v>
       </c>
       <c r="H428">
+        <f t="shared" si="6"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="I428">
         <v>26.7</v>
       </c>
-      <c r="I428">
+      <c r="J428">
         <v>7.3999999999999986</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A429" s="2">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A429" s="3">
         <v>44044</v>
       </c>
       <c r="B429">
@@ -12895,14 +14622,18 @@
         <v>23</v>
       </c>
       <c r="H429">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="I429">
         <v>27.5</v>
       </c>
-      <c r="I429">
+      <c r="J429">
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A430" s="2">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A430" s="3">
         <v>44075</v>
       </c>
       <c r="B430">
@@ -12924,14 +14655,18 @@
         <v>23</v>
       </c>
       <c r="H430">
+        <f t="shared" si="6"/>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="I430">
         <v>26.65</v>
       </c>
-      <c r="I430">
+      <c r="J430">
         <v>7.3000000000000007</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A431" s="2">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A431" s="3">
         <v>44105</v>
       </c>
       <c r="B431">
@@ -12953,14 +14688,18 @@
         <v>23</v>
       </c>
       <c r="H431">
+        <f t="shared" si="6"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="I431">
         <v>26.1</v>
       </c>
-      <c r="I431">
+      <c r="J431">
         <v>6.1999999999999993</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A432" s="2">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A432" s="3">
         <v>44136</v>
       </c>
       <c r="B432">
@@ -12982,14 +14721,18 @@
         <v>24</v>
       </c>
       <c r="H432">
+        <f t="shared" si="6"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I432">
         <v>27.6</v>
       </c>
-      <c r="I432">
+      <c r="J432">
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A433" s="2">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A433" s="3">
         <v>44166</v>
       </c>
       <c r="B433">
@@ -13011,9 +14754,13 @@
         <v>24</v>
       </c>
       <c r="H433">
+        <f t="shared" si="6"/>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="I433">
         <v>26.7</v>
       </c>
-      <c r="I433">
+      <c r="J433">
         <v>5.3999999999999986</v>
       </c>
     </row>
